--- a/studios/studio4/Prob2.xlsx
+++ b/studios/studio4/Prob2.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roncytron/git/cse247-f16-students/studios/studio4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vihardesu/git/cse247-f16-students-vihar.desu/studios/studio4/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="400" yWindow="460" windowWidth="16280" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="2460" yWindow="460" windowWidth="16280" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -4869,25 +4866,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="512"/>
                 <c:pt idx="0">
-                  <c:v>4000.0</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8000.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12000.0</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16000.0</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20000.0</c:v>
+                  <c:v>39.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24000.0</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28000.0</c:v>
+                  <c:v>75.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>32000.0</c:v>
@@ -6417,11 +6414,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-751293408"/>
-        <c:axId val="-751288752"/>
+        <c:axId val="-2092126960"/>
+        <c:axId val="-2092122880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-751293408"/>
+        <c:axId val="-2092126960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6441,6 +6438,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6477,12 +6475,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-751288752"/>
+        <c:crossAx val="-2092122880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-751288752"/>
+        <c:axId val="-2092122880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6502,6 +6500,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6538,7 +6537,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-751293408"/>
+        <c:crossAx val="-2092126960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7476,7 +7475,7 @@
   <dimension ref="A1:F513"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7516,8 +7515,8 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <f>4000*A2</f>
-        <v>4000</v>
+        <f>3/2*A2^2 + 2</f>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -7529,12 +7528,12 @@
         <v>$C$2</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C60" ca="1" si="1">1*INDIRECT(B3)+4*A3-5</f>
+        <f t="shared" ref="C3:C28" ca="1" si="1">1*INDIRECT(B3)+4*A3-5</f>
         <v>7</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="2">4000*A3</f>
-        <v>8000</v>
+        <f t="shared" ref="D3:D8" si="2">3/2*A3^2 + 2</f>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -7551,7 +7550,7 @@
       </c>
       <c r="D4">
         <f t="shared" si="2"/>
-        <v>12000</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -7568,7 +7567,7 @@
       </c>
       <c r="D5">
         <f t="shared" si="2"/>
-        <v>16000</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -7585,7 +7584,7 @@
       </c>
       <c r="D6">
         <f t="shared" si="2"/>
-        <v>20000</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -7602,7 +7601,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="2"/>
-        <v>24000</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -7619,7 +7618,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>28000</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -7635,7 +7634,7 @@
         <v>109</v>
       </c>
       <c r="D9">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D3:D66" si="3">4000*A9</f>
         <v>32000</v>
       </c>
     </row>
@@ -7652,7 +7651,7 @@
         <v>140</v>
       </c>
       <c r="D10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36000</v>
       </c>
     </row>
@@ -7669,7 +7668,7 @@
         <v>175</v>
       </c>
       <c r="D11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40000</v>
       </c>
     </row>
@@ -7686,7 +7685,7 @@
         <v>214</v>
       </c>
       <c r="D12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44000</v>
       </c>
     </row>
@@ -7703,7 +7702,7 @@
         <v>257</v>
       </c>
       <c r="D13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>48000</v>
       </c>
     </row>
@@ -7720,7 +7719,7 @@
         <v>304</v>
       </c>
       <c r="D14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>52000</v>
       </c>
     </row>
@@ -7737,7 +7736,7 @@
         <v>355</v>
       </c>
       <c r="D15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56000</v>
       </c>
     </row>
@@ -7754,7 +7753,7 @@
         <v>410</v>
       </c>
       <c r="D16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60000</v>
       </c>
     </row>
@@ -7771,7 +7770,7 @@
         <v>469</v>
       </c>
       <c r="D17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>64000</v>
       </c>
     </row>
@@ -7788,7 +7787,7 @@
         <v>532</v>
       </c>
       <c r="D18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>68000</v>
       </c>
     </row>
@@ -7805,7 +7804,7 @@
         <v>599</v>
       </c>
       <c r="D19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>72000</v>
       </c>
     </row>
@@ -7822,7 +7821,7 @@
         <v>670</v>
       </c>
       <c r="D20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>76000</v>
       </c>
     </row>
@@ -7839,7 +7838,7 @@
         <v>745</v>
       </c>
       <c r="D21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80000</v>
       </c>
     </row>
@@ -7856,7 +7855,7 @@
         <v>824</v>
       </c>
       <c r="D22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>84000</v>
       </c>
     </row>
@@ -7873,7 +7872,7 @@
         <v>907</v>
       </c>
       <c r="D23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>88000</v>
       </c>
     </row>
@@ -7890,7 +7889,7 @@
         <v>994</v>
       </c>
       <c r="D24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>92000</v>
       </c>
     </row>
@@ -7907,7 +7906,7 @@
         <v>1085</v>
       </c>
       <c r="D25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>96000</v>
       </c>
     </row>
@@ -7924,7 +7923,7 @@
         <v>1180</v>
       </c>
       <c r="D26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100000</v>
       </c>
     </row>
@@ -7941,7 +7940,7 @@
         <v>1279</v>
       </c>
       <c r="D27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>104000</v>
       </c>
     </row>
@@ -7958,7 +7957,7 @@
         <v>1382</v>
       </c>
       <c r="D28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>108000</v>
       </c>
     </row>
@@ -7971,11 +7970,11 @@
         <v>$C$28</v>
       </c>
       <c r="C29">
-        <f t="shared" ref="C3:C66" ca="1" si="3">1*INDIRECT(B29)+4*A29-7</f>
+        <f t="shared" ref="C29:C66" ca="1" si="4">1*INDIRECT(B29)+4*A29-7</f>
         <v>1487</v>
       </c>
       <c r="D29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>112000</v>
       </c>
     </row>
@@ -7988,11 +7987,11 @@
         <v>$C$29</v>
       </c>
       <c r="C30">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1596</v>
       </c>
       <c r="D30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>116000</v>
       </c>
     </row>
@@ -8005,11 +8004,11 @@
         <v>$C$30</v>
       </c>
       <c r="C31">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1709</v>
       </c>
       <c r="D31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120000</v>
       </c>
     </row>
@@ -8022,11 +8021,11 @@
         <v>$C$31</v>
       </c>
       <c r="C32">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1826</v>
       </c>
       <c r="D32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>124000</v>
       </c>
     </row>
@@ -8039,11 +8038,11 @@
         <v>$C$32</v>
       </c>
       <c r="C33">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1947</v>
       </c>
       <c r="D33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>128000</v>
       </c>
     </row>
@@ -8056,11 +8055,11 @@
         <v>$C$33</v>
       </c>
       <c r="C34">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>2072</v>
       </c>
       <c r="D34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>132000</v>
       </c>
     </row>
@@ -8073,11 +8072,11 @@
         <v>$C$34</v>
       </c>
       <c r="C35">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>2201</v>
       </c>
       <c r="D35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>136000</v>
       </c>
     </row>
@@ -8090,11 +8089,11 @@
         <v>$C$35</v>
       </c>
       <c r="C36">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>2334</v>
       </c>
       <c r="D36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>140000</v>
       </c>
     </row>
@@ -8107,11 +8106,11 @@
         <v>$C$36</v>
       </c>
       <c r="C37">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>2471</v>
       </c>
       <c r="D37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>144000</v>
       </c>
     </row>
@@ -8124,11 +8123,11 @@
         <v>$C$37</v>
       </c>
       <c r="C38">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>2612</v>
       </c>
       <c r="D38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>148000</v>
       </c>
     </row>
@@ -8141,11 +8140,11 @@
         <v>$C$38</v>
       </c>
       <c r="C39">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>2757</v>
       </c>
       <c r="D39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>152000</v>
       </c>
     </row>
@@ -8158,11 +8157,11 @@
         <v>$C$39</v>
       </c>
       <c r="C40">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>2906</v>
       </c>
       <c r="D40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>156000</v>
       </c>
     </row>
@@ -8175,11 +8174,11 @@
         <v>$C$40</v>
       </c>
       <c r="C41">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>3059</v>
       </c>
       <c r="D41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>160000</v>
       </c>
     </row>
@@ -8192,11 +8191,11 @@
         <v>$C$41</v>
       </c>
       <c r="C42">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>3216</v>
       </c>
       <c r="D42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>164000</v>
       </c>
     </row>
@@ -8209,11 +8208,11 @@
         <v>$C$42</v>
       </c>
       <c r="C43">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>3377</v>
       </c>
       <c r="D43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>168000</v>
       </c>
     </row>
@@ -8226,11 +8225,11 @@
         <v>$C$43</v>
       </c>
       <c r="C44">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>3542</v>
       </c>
       <c r="D44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>172000</v>
       </c>
     </row>
@@ -8243,11 +8242,11 @@
         <v>$C$44</v>
       </c>
       <c r="C45">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>3711</v>
       </c>
       <c r="D45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>176000</v>
       </c>
     </row>
@@ -8260,11 +8259,11 @@
         <v>$C$45</v>
       </c>
       <c r="C46">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>3884</v>
       </c>
       <c r="D46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>180000</v>
       </c>
     </row>
@@ -8277,11 +8276,11 @@
         <v>$C$46</v>
       </c>
       <c r="C47">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>4061</v>
       </c>
       <c r="D47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>184000</v>
       </c>
     </row>
@@ -8294,11 +8293,11 @@
         <v>$C$47</v>
       </c>
       <c r="C48">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>4242</v>
       </c>
       <c r="D48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>188000</v>
       </c>
     </row>
@@ -8311,11 +8310,11 @@
         <v>$C$48</v>
       </c>
       <c r="C49">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>4427</v>
       </c>
       <c r="D49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>192000</v>
       </c>
     </row>
@@ -8328,11 +8327,11 @@
         <v>$C$49</v>
       </c>
       <c r="C50">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>4616</v>
       </c>
       <c r="D50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>196000</v>
       </c>
     </row>
@@ -8345,11 +8344,11 @@
         <v>$C$50</v>
       </c>
       <c r="C51">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>4809</v>
       </c>
       <c r="D51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>200000</v>
       </c>
     </row>
@@ -8362,11 +8361,11 @@
         <v>$C$51</v>
       </c>
       <c r="C52">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>5006</v>
       </c>
       <c r="D52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>204000</v>
       </c>
     </row>
@@ -8379,11 +8378,11 @@
         <v>$C$52</v>
       </c>
       <c r="C53">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>5207</v>
       </c>
       <c r="D53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>208000</v>
       </c>
     </row>
@@ -8396,11 +8395,11 @@
         <v>$C$53</v>
       </c>
       <c r="C54">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>5412</v>
       </c>
       <c r="D54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>212000</v>
       </c>
     </row>
@@ -8413,11 +8412,11 @@
         <v>$C$54</v>
       </c>
       <c r="C55">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>5621</v>
       </c>
       <c r="D55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>216000</v>
       </c>
     </row>
@@ -8430,11 +8429,11 @@
         <v>$C$55</v>
       </c>
       <c r="C56">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>5834</v>
       </c>
       <c r="D56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>220000</v>
       </c>
     </row>
@@ -8447,11 +8446,11 @@
         <v>$C$56</v>
       </c>
       <c r="C57">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>6051</v>
       </c>
       <c r="D57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>224000</v>
       </c>
     </row>
@@ -8464,11 +8463,11 @@
         <v>$C$57</v>
       </c>
       <c r="C58">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>6272</v>
       </c>
       <c r="D58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>228000</v>
       </c>
     </row>
@@ -8481,11 +8480,11 @@
         <v>$C$58</v>
       </c>
       <c r="C59">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>6497</v>
       </c>
       <c r="D59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>232000</v>
       </c>
     </row>
@@ -8498,11 +8497,11 @@
         <v>$C$59</v>
       </c>
       <c r="C60">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>6726</v>
       </c>
       <c r="D60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>236000</v>
       </c>
     </row>
@@ -8515,11 +8514,11 @@
         <v>$C$60</v>
       </c>
       <c r="C61">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>6959</v>
       </c>
       <c r="D61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>240000</v>
       </c>
     </row>
@@ -8532,11 +8531,11 @@
         <v>$C$61</v>
       </c>
       <c r="C62">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>7196</v>
       </c>
       <c r="D62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>244000</v>
       </c>
     </row>
@@ -8549,11 +8548,11 @@
         <v>$C$62</v>
       </c>
       <c r="C63">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>7437</v>
       </c>
       <c r="D63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>248000</v>
       </c>
     </row>
@@ -8566,11 +8565,11 @@
         <v>$C$63</v>
       </c>
       <c r="C64">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>7682</v>
       </c>
       <c r="D64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>252000</v>
       </c>
     </row>
@@ -8583,11 +8582,11 @@
         <v>$C$64</v>
       </c>
       <c r="C65">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>7931</v>
       </c>
       <c r="D65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>256000</v>
       </c>
     </row>
@@ -8600,11 +8599,11 @@
         <v>$C$65</v>
       </c>
       <c r="C66">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>8184</v>
       </c>
       <c r="D66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>260000</v>
       </c>
     </row>
@@ -8613,15 +8612,15 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="str">
-        <f t="shared" ref="B67:B130" si="4">IF(A67&gt;1,ADDRESS(INT(A67-1)+1,3),ADDRESS(1,6))</f>
+        <f t="shared" ref="B67:B130" si="5">IF(A67&gt;1,ADDRESS(INT(A67-1)+1,3),ADDRESS(1,6))</f>
         <v>$C$66</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C130" ca="1" si="5">1*INDIRECT(B67)+4*A67-7</f>
+        <f t="shared" ref="C67:C130" ca="1" si="6">1*INDIRECT(B67)+4*A67-7</f>
         <v>8441</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D130" si="6">4000*A67</f>
+        <f t="shared" ref="D67:D130" si="7">4000*A67</f>
         <v>264000</v>
       </c>
     </row>
@@ -8630,15 +8629,15 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$67</v>
       </c>
       <c r="C68">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>8702</v>
       </c>
       <c r="D68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>268000</v>
       </c>
     </row>
@@ -8647,15 +8646,15 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$68</v>
       </c>
       <c r="C69">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>8967</v>
       </c>
       <c r="D69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>272000</v>
       </c>
     </row>
@@ -8664,15 +8663,15 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$69</v>
       </c>
       <c r="C70">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>9236</v>
       </c>
       <c r="D70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>276000</v>
       </c>
     </row>
@@ -8681,15 +8680,15 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$70</v>
       </c>
       <c r="C71">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>9509</v>
       </c>
       <c r="D71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>280000</v>
       </c>
     </row>
@@ -8698,15 +8697,15 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$71</v>
       </c>
       <c r="C72">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>9786</v>
       </c>
       <c r="D72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>284000</v>
       </c>
     </row>
@@ -8715,15 +8714,15 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$72</v>
       </c>
       <c r="C73">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>10067</v>
       </c>
       <c r="D73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>288000</v>
       </c>
     </row>
@@ -8732,15 +8731,15 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$73</v>
       </c>
       <c r="C74">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>10352</v>
       </c>
       <c r="D74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>292000</v>
       </c>
     </row>
@@ -8749,15 +8748,15 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$74</v>
       </c>
       <c r="C75">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>10641</v>
       </c>
       <c r="D75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>296000</v>
       </c>
     </row>
@@ -8766,15 +8765,15 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$75</v>
       </c>
       <c r="C76">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>10934</v>
       </c>
       <c r="D76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>300000</v>
       </c>
     </row>
@@ -8783,15 +8782,15 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$76</v>
       </c>
       <c r="C77">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>11231</v>
       </c>
       <c r="D77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>304000</v>
       </c>
     </row>
@@ -8800,15 +8799,15 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$77</v>
       </c>
       <c r="C78">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>11532</v>
       </c>
       <c r="D78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>308000</v>
       </c>
     </row>
@@ -8817,15 +8816,15 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$78</v>
       </c>
       <c r="C79">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>11837</v>
       </c>
       <c r="D79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>312000</v>
       </c>
     </row>
@@ -8834,15 +8833,15 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$79</v>
       </c>
       <c r="C80">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>12146</v>
       </c>
       <c r="D80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>316000</v>
       </c>
     </row>
@@ -8851,15 +8850,15 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$80</v>
       </c>
       <c r="C81">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>12459</v>
       </c>
       <c r="D81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>320000</v>
       </c>
     </row>
@@ -8868,15 +8867,15 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$81</v>
       </c>
       <c r="C82">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>12776</v>
       </c>
       <c r="D82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>324000</v>
       </c>
     </row>
@@ -8885,15 +8884,15 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$82</v>
       </c>
       <c r="C83">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>13097</v>
       </c>
       <c r="D83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>328000</v>
       </c>
     </row>
@@ -8902,15 +8901,15 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$83</v>
       </c>
       <c r="C84">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>13422</v>
       </c>
       <c r="D84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>332000</v>
       </c>
     </row>
@@ -8919,15 +8918,15 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$84</v>
       </c>
       <c r="C85">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>13751</v>
       </c>
       <c r="D85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>336000</v>
       </c>
     </row>
@@ -8936,15 +8935,15 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$85</v>
       </c>
       <c r="C86">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>14084</v>
       </c>
       <c r="D86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>340000</v>
       </c>
     </row>
@@ -8953,15 +8952,15 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$86</v>
       </c>
       <c r="C87">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>14421</v>
       </c>
       <c r="D87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>344000</v>
       </c>
     </row>
@@ -8970,15 +8969,15 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$87</v>
       </c>
       <c r="C88">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>14762</v>
       </c>
       <c r="D88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>348000</v>
       </c>
     </row>
@@ -8987,15 +8986,15 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$88</v>
       </c>
       <c r="C89">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>15107</v>
       </c>
       <c r="D89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>352000</v>
       </c>
     </row>
@@ -9004,15 +9003,15 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$89</v>
       </c>
       <c r="C90">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>15456</v>
       </c>
       <c r="D90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>356000</v>
       </c>
     </row>
@@ -9021,15 +9020,15 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$90</v>
       </c>
       <c r="C91">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>15809</v>
       </c>
       <c r="D91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>360000</v>
       </c>
     </row>
@@ -9038,15 +9037,15 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$91</v>
       </c>
       <c r="C92">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>16166</v>
       </c>
       <c r="D92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>364000</v>
       </c>
     </row>
@@ -9055,15 +9054,15 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$92</v>
       </c>
       <c r="C93">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>16527</v>
       </c>
       <c r="D93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>368000</v>
       </c>
     </row>
@@ -9072,15 +9071,15 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$93</v>
       </c>
       <c r="C94">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>16892</v>
       </c>
       <c r="D94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>372000</v>
       </c>
     </row>
@@ -9089,15 +9088,15 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$94</v>
       </c>
       <c r="C95">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>17261</v>
       </c>
       <c r="D95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>376000</v>
       </c>
     </row>
@@ -9106,15 +9105,15 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$95</v>
       </c>
       <c r="C96">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>17634</v>
       </c>
       <c r="D96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>380000</v>
       </c>
     </row>
@@ -9123,15 +9122,15 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$96</v>
       </c>
       <c r="C97">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>18011</v>
       </c>
       <c r="D97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>384000</v>
       </c>
     </row>
@@ -9140,15 +9139,15 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$97</v>
       </c>
       <c r="C98">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>18392</v>
       </c>
       <c r="D98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>388000</v>
       </c>
     </row>
@@ -9157,15 +9156,15 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$98</v>
       </c>
       <c r="C99">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>18777</v>
       </c>
       <c r="D99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>392000</v>
       </c>
     </row>
@@ -9174,15 +9173,15 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$99</v>
       </c>
       <c r="C100">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>19166</v>
       </c>
       <c r="D100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>396000</v>
       </c>
     </row>
@@ -9191,15 +9190,15 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$100</v>
       </c>
       <c r="C101">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>19559</v>
       </c>
       <c r="D101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>400000</v>
       </c>
     </row>
@@ -9208,15 +9207,15 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$101</v>
       </c>
       <c r="C102">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>19956</v>
       </c>
       <c r="D102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>404000</v>
       </c>
     </row>
@@ -9225,15 +9224,15 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$102</v>
       </c>
       <c r="C103">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>20357</v>
       </c>
       <c r="D103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>408000</v>
       </c>
     </row>
@@ -9242,15 +9241,15 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$103</v>
       </c>
       <c r="C104">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>20762</v>
       </c>
       <c r="D104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>412000</v>
       </c>
     </row>
@@ -9259,15 +9258,15 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$104</v>
       </c>
       <c r="C105">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>21171</v>
       </c>
       <c r="D105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>416000</v>
       </c>
     </row>
@@ -9276,15 +9275,15 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$105</v>
       </c>
       <c r="C106">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>21584</v>
       </c>
       <c r="D106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>420000</v>
       </c>
     </row>
@@ -9293,15 +9292,15 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$106</v>
       </c>
       <c r="C107">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>22001</v>
       </c>
       <c r="D107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>424000</v>
       </c>
     </row>
@@ -9310,15 +9309,15 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$107</v>
       </c>
       <c r="C108">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>22422</v>
       </c>
       <c r="D108">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>428000</v>
       </c>
     </row>
@@ -9327,15 +9326,15 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$108</v>
       </c>
       <c r="C109">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>22847</v>
       </c>
       <c r="D109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>432000</v>
       </c>
     </row>
@@ -9344,15 +9343,15 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$109</v>
       </c>
       <c r="C110">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>23276</v>
       </c>
       <c r="D110">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>436000</v>
       </c>
     </row>
@@ -9361,15 +9360,15 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$110</v>
       </c>
       <c r="C111">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>23709</v>
       </c>
       <c r="D111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>440000</v>
       </c>
     </row>
@@ -9378,15 +9377,15 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$111</v>
       </c>
       <c r="C112">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>24146</v>
       </c>
       <c r="D112">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>444000</v>
       </c>
     </row>
@@ -9395,15 +9394,15 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$112</v>
       </c>
       <c r="C113">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>24587</v>
       </c>
       <c r="D113">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>448000</v>
       </c>
     </row>
@@ -9412,15 +9411,15 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$113</v>
       </c>
       <c r="C114">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>25032</v>
       </c>
       <c r="D114">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>452000</v>
       </c>
     </row>
@@ -9429,15 +9428,15 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$114</v>
       </c>
       <c r="C115">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>25481</v>
       </c>
       <c r="D115">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>456000</v>
       </c>
     </row>
@@ -9446,15 +9445,15 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$115</v>
       </c>
       <c r="C116">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>25934</v>
       </c>
       <c r="D116">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>460000</v>
       </c>
     </row>
@@ -9463,15 +9462,15 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$116</v>
       </c>
       <c r="C117">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>26391</v>
       </c>
       <c r="D117">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>464000</v>
       </c>
     </row>
@@ -9480,15 +9479,15 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$117</v>
       </c>
       <c r="C118">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>26852</v>
       </c>
       <c r="D118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>468000</v>
       </c>
     </row>
@@ -9497,15 +9496,15 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$118</v>
       </c>
       <c r="C119">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>27317</v>
       </c>
       <c r="D119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>472000</v>
       </c>
     </row>
@@ -9514,15 +9513,15 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$119</v>
       </c>
       <c r="C120">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>27786</v>
       </c>
       <c r="D120">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>476000</v>
       </c>
     </row>
@@ -9531,15 +9530,15 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$120</v>
       </c>
       <c r="C121">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>28259</v>
       </c>
       <c r="D121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>480000</v>
       </c>
     </row>
@@ -9548,15 +9547,15 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$121</v>
       </c>
       <c r="C122">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>28736</v>
       </c>
       <c r="D122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>484000</v>
       </c>
     </row>
@@ -9565,15 +9564,15 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$122</v>
       </c>
       <c r="C123">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>29217</v>
       </c>
       <c r="D123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>488000</v>
       </c>
     </row>
@@ -9582,15 +9581,15 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$123</v>
       </c>
       <c r="C124">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>29702</v>
       </c>
       <c r="D124">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>492000</v>
       </c>
     </row>
@@ -9599,15 +9598,15 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$124</v>
       </c>
       <c r="C125">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>30191</v>
       </c>
       <c r="D125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>496000</v>
       </c>
     </row>
@@ -9616,15 +9615,15 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$125</v>
       </c>
       <c r="C126">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>30684</v>
       </c>
       <c r="D126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>500000</v>
       </c>
     </row>
@@ -9633,15 +9632,15 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$126</v>
       </c>
       <c r="C127">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>31181</v>
       </c>
       <c r="D127">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>504000</v>
       </c>
     </row>
@@ -9650,15 +9649,15 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$127</v>
       </c>
       <c r="C128">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>31682</v>
       </c>
       <c r="D128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>508000</v>
       </c>
     </row>
@@ -9667,15 +9666,15 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$128</v>
       </c>
       <c r="C129">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>32187</v>
       </c>
       <c r="D129">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>512000</v>
       </c>
     </row>
@@ -9684,15 +9683,15 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>$C$129</v>
       </c>
       <c r="C130">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>32696</v>
       </c>
       <c r="D130">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>516000</v>
       </c>
     </row>
@@ -9701,15 +9700,15 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="str">
-        <f t="shared" ref="B131:B194" si="7">IF(A131&gt;1,ADDRESS(INT(A131-1)+1,3),ADDRESS(1,6))</f>
+        <f t="shared" ref="B131:B194" si="8">IF(A131&gt;1,ADDRESS(INT(A131-1)+1,3),ADDRESS(1,6))</f>
         <v>$C$130</v>
       </c>
       <c r="C131">
-        <f t="shared" ref="C131:C194" ca="1" si="8">1*INDIRECT(B131)+4*A131-7</f>
+        <f t="shared" ref="C131:C194" ca="1" si="9">1*INDIRECT(B131)+4*A131-7</f>
         <v>33209</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="D131:D194" si="9">4000*A131</f>
+        <f t="shared" ref="D131:D194" si="10">4000*A131</f>
         <v>520000</v>
       </c>
     </row>
@@ -9718,15 +9717,15 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$131</v>
       </c>
       <c r="C132">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>33726</v>
       </c>
       <c r="D132">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>524000</v>
       </c>
     </row>
@@ -9735,15 +9734,15 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$132</v>
       </c>
       <c r="C133">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>34247</v>
       </c>
       <c r="D133">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>528000</v>
       </c>
     </row>
@@ -9752,15 +9751,15 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$133</v>
       </c>
       <c r="C134">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>34772</v>
       </c>
       <c r="D134">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>532000</v>
       </c>
     </row>
@@ -9769,15 +9768,15 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$134</v>
       </c>
       <c r="C135">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>35301</v>
       </c>
       <c r="D135">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>536000</v>
       </c>
     </row>
@@ -9786,15 +9785,15 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$135</v>
       </c>
       <c r="C136">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>35834</v>
       </c>
       <c r="D136">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>540000</v>
       </c>
     </row>
@@ -9803,15 +9802,15 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$136</v>
       </c>
       <c r="C137">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>36371</v>
       </c>
       <c r="D137">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>544000</v>
       </c>
     </row>
@@ -9820,15 +9819,15 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$137</v>
       </c>
       <c r="C138">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>36912</v>
       </c>
       <c r="D138">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>548000</v>
       </c>
     </row>
@@ -9837,15 +9836,15 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$138</v>
       </c>
       <c r="C139">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>37457</v>
       </c>
       <c r="D139">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>552000</v>
       </c>
     </row>
@@ -9854,15 +9853,15 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$139</v>
       </c>
       <c r="C140">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>38006</v>
       </c>
       <c r="D140">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>556000</v>
       </c>
     </row>
@@ -9871,15 +9870,15 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$140</v>
       </c>
       <c r="C141">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>38559</v>
       </c>
       <c r="D141">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>560000</v>
       </c>
     </row>
@@ -9888,15 +9887,15 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$141</v>
       </c>
       <c r="C142">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>39116</v>
       </c>
       <c r="D142">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>564000</v>
       </c>
     </row>
@@ -9905,15 +9904,15 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$142</v>
       </c>
       <c r="C143">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>39677</v>
       </c>
       <c r="D143">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>568000</v>
       </c>
     </row>
@@ -9922,15 +9921,15 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$143</v>
       </c>
       <c r="C144">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>40242</v>
       </c>
       <c r="D144">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>572000</v>
       </c>
     </row>
@@ -9939,15 +9938,15 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$144</v>
       </c>
       <c r="C145">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>40811</v>
       </c>
       <c r="D145">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>576000</v>
       </c>
     </row>
@@ -9956,15 +9955,15 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$145</v>
       </c>
       <c r="C146">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>41384</v>
       </c>
       <c r="D146">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>580000</v>
       </c>
     </row>
@@ -9973,15 +9972,15 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$146</v>
       </c>
       <c r="C147">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>41961</v>
       </c>
       <c r="D147">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>584000</v>
       </c>
     </row>
@@ -9990,15 +9989,15 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$147</v>
       </c>
       <c r="C148">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>42542</v>
       </c>
       <c r="D148">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>588000</v>
       </c>
     </row>
@@ -10007,15 +10006,15 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$148</v>
       </c>
       <c r="C149">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>43127</v>
       </c>
       <c r="D149">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>592000</v>
       </c>
     </row>
@@ -10024,15 +10023,15 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$149</v>
       </c>
       <c r="C150">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>43716</v>
       </c>
       <c r="D150">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>596000</v>
       </c>
     </row>
@@ -10041,15 +10040,15 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$150</v>
       </c>
       <c r="C151">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>44309</v>
       </c>
       <c r="D151">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>600000</v>
       </c>
     </row>
@@ -10058,15 +10057,15 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$151</v>
       </c>
       <c r="C152">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>44906</v>
       </c>
       <c r="D152">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>604000</v>
       </c>
     </row>
@@ -10075,15 +10074,15 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$152</v>
       </c>
       <c r="C153">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>45507</v>
       </c>
       <c r="D153">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>608000</v>
       </c>
     </row>
@@ -10092,15 +10091,15 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$153</v>
       </c>
       <c r="C154">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>46112</v>
       </c>
       <c r="D154">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>612000</v>
       </c>
     </row>
@@ -10109,15 +10108,15 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$154</v>
       </c>
       <c r="C155">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>46721</v>
       </c>
       <c r="D155">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>616000</v>
       </c>
     </row>
@@ -10126,15 +10125,15 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$155</v>
       </c>
       <c r="C156">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>47334</v>
       </c>
       <c r="D156">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>620000</v>
       </c>
     </row>
@@ -10143,15 +10142,15 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$156</v>
       </c>
       <c r="C157">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>47951</v>
       </c>
       <c r="D157">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>624000</v>
       </c>
     </row>
@@ -10160,15 +10159,15 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$157</v>
       </c>
       <c r="C158">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>48572</v>
       </c>
       <c r="D158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>628000</v>
       </c>
     </row>
@@ -10177,15 +10176,15 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$158</v>
       </c>
       <c r="C159">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>49197</v>
       </c>
       <c r="D159">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>632000</v>
       </c>
     </row>
@@ -10194,15 +10193,15 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$159</v>
       </c>
       <c r="C160">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>49826</v>
       </c>
       <c r="D160">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>636000</v>
       </c>
     </row>
@@ -10211,15 +10210,15 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$160</v>
       </c>
       <c r="C161">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>50459</v>
       </c>
       <c r="D161">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>640000</v>
       </c>
     </row>
@@ -10228,15 +10227,15 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$161</v>
       </c>
       <c r="C162">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>51096</v>
       </c>
       <c r="D162">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>644000</v>
       </c>
     </row>
@@ -10245,15 +10244,15 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$162</v>
       </c>
       <c r="C163">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>51737</v>
       </c>
       <c r="D163">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>648000</v>
       </c>
     </row>
@@ -10262,15 +10261,15 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$163</v>
       </c>
       <c r="C164">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>52382</v>
       </c>
       <c r="D164">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>652000</v>
       </c>
     </row>
@@ -10279,15 +10278,15 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$164</v>
       </c>
       <c r="C165">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>53031</v>
       </c>
       <c r="D165">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>656000</v>
       </c>
     </row>
@@ -10296,15 +10295,15 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$165</v>
       </c>
       <c r="C166">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>53684</v>
       </c>
       <c r="D166">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>660000</v>
       </c>
     </row>
@@ -10313,15 +10312,15 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$166</v>
       </c>
       <c r="C167">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>54341</v>
       </c>
       <c r="D167">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>664000</v>
       </c>
     </row>
@@ -10330,15 +10329,15 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$167</v>
       </c>
       <c r="C168">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>55002</v>
       </c>
       <c r="D168">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>668000</v>
       </c>
     </row>
@@ -10347,15 +10346,15 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$168</v>
       </c>
       <c r="C169">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>55667</v>
       </c>
       <c r="D169">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>672000</v>
       </c>
     </row>
@@ -10364,15 +10363,15 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$169</v>
       </c>
       <c r="C170">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>56336</v>
       </c>
       <c r="D170">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>676000</v>
       </c>
     </row>
@@ -10381,15 +10380,15 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$170</v>
       </c>
       <c r="C171">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>57009</v>
       </c>
       <c r="D171">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>680000</v>
       </c>
     </row>
@@ -10398,15 +10397,15 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$171</v>
       </c>
       <c r="C172">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>57686</v>
       </c>
       <c r="D172">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>684000</v>
       </c>
     </row>
@@ -10415,15 +10414,15 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$172</v>
       </c>
       <c r="C173">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>58367</v>
       </c>
       <c r="D173">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>688000</v>
       </c>
     </row>
@@ -10432,15 +10431,15 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$173</v>
       </c>
       <c r="C174">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>59052</v>
       </c>
       <c r="D174">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>692000</v>
       </c>
     </row>
@@ -10449,15 +10448,15 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$174</v>
       </c>
       <c r="C175">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>59741</v>
       </c>
       <c r="D175">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>696000</v>
       </c>
     </row>
@@ -10466,15 +10465,15 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$175</v>
       </c>
       <c r="C176">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>60434</v>
       </c>
       <c r="D176">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>700000</v>
       </c>
     </row>
@@ -10483,15 +10482,15 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$176</v>
       </c>
       <c r="C177">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>61131</v>
       </c>
       <c r="D177">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>704000</v>
       </c>
     </row>
@@ -10500,15 +10499,15 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$177</v>
       </c>
       <c r="C178">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>61832</v>
       </c>
       <c r="D178">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>708000</v>
       </c>
     </row>
@@ -10517,15 +10516,15 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$178</v>
       </c>
       <c r="C179">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>62537</v>
       </c>
       <c r="D179">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>712000</v>
       </c>
     </row>
@@ -10534,15 +10533,15 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$179</v>
       </c>
       <c r="C180">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>63246</v>
       </c>
       <c r="D180">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>716000</v>
       </c>
     </row>
@@ -10551,15 +10550,15 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$180</v>
       </c>
       <c r="C181">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>63959</v>
       </c>
       <c r="D181">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>720000</v>
       </c>
     </row>
@@ -10568,15 +10567,15 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$181</v>
       </c>
       <c r="C182">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>64676</v>
       </c>
       <c r="D182">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>724000</v>
       </c>
     </row>
@@ -10585,15 +10584,15 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$182</v>
       </c>
       <c r="C183">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>65397</v>
       </c>
       <c r="D183">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>728000</v>
       </c>
     </row>
@@ -10602,15 +10601,15 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$183</v>
       </c>
       <c r="C184">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>66122</v>
       </c>
       <c r="D184">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>732000</v>
       </c>
     </row>
@@ -10619,15 +10618,15 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$184</v>
       </c>
       <c r="C185">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>66851</v>
       </c>
       <c r="D185">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>736000</v>
       </c>
     </row>
@@ -10636,15 +10635,15 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$185</v>
       </c>
       <c r="C186">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>67584</v>
       </c>
       <c r="D186">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>740000</v>
       </c>
     </row>
@@ -10653,15 +10652,15 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$186</v>
       </c>
       <c r="C187">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>68321</v>
       </c>
       <c r="D187">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>744000</v>
       </c>
     </row>
@@ -10670,15 +10669,15 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$187</v>
       </c>
       <c r="C188">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>69062</v>
       </c>
       <c r="D188">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>748000</v>
       </c>
     </row>
@@ -10687,15 +10686,15 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$188</v>
       </c>
       <c r="C189">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>69807</v>
       </c>
       <c r="D189">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>752000</v>
       </c>
     </row>
@@ -10704,15 +10703,15 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$189</v>
       </c>
       <c r="C190">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>70556</v>
       </c>
       <c r="D190">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>756000</v>
       </c>
     </row>
@@ -10721,15 +10720,15 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$190</v>
       </c>
       <c r="C191">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>71309</v>
       </c>
       <c r="D191">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>760000</v>
       </c>
     </row>
@@ -10738,15 +10737,15 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$191</v>
       </c>
       <c r="C192">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>72066</v>
       </c>
       <c r="D192">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>764000</v>
       </c>
     </row>
@@ -10755,15 +10754,15 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$192</v>
       </c>
       <c r="C193">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>72827</v>
       </c>
       <c r="D193">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>768000</v>
       </c>
     </row>
@@ -10772,15 +10771,15 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>$C$193</v>
       </c>
       <c r="C194">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>73592</v>
       </c>
       <c r="D194">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>772000</v>
       </c>
     </row>
@@ -10789,15 +10788,15 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="str">
-        <f t="shared" ref="B195:B258" si="10">IF(A195&gt;1,ADDRESS(INT(A195-1)+1,3),ADDRESS(1,6))</f>
+        <f t="shared" ref="B195:B258" si="11">IF(A195&gt;1,ADDRESS(INT(A195-1)+1,3),ADDRESS(1,6))</f>
         <v>$C$194</v>
       </c>
       <c r="C195">
-        <f t="shared" ref="C195:C258" ca="1" si="11">1*INDIRECT(B195)+4*A195-7</f>
+        <f t="shared" ref="C195:C258" ca="1" si="12">1*INDIRECT(B195)+4*A195-7</f>
         <v>74361</v>
       </c>
       <c r="D195">
-        <f t="shared" ref="D195:D258" si="12">4000*A195</f>
+        <f t="shared" ref="D195:D258" si="13">4000*A195</f>
         <v>776000</v>
       </c>
     </row>
@@ -10806,15 +10805,15 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$195</v>
       </c>
       <c r="C196">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>75134</v>
       </c>
       <c r="D196">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>780000</v>
       </c>
     </row>
@@ -10823,15 +10822,15 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$196</v>
       </c>
       <c r="C197">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>75911</v>
       </c>
       <c r="D197">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>784000</v>
       </c>
     </row>
@@ -10840,15 +10839,15 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$197</v>
       </c>
       <c r="C198">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>76692</v>
       </c>
       <c r="D198">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>788000</v>
       </c>
     </row>
@@ -10857,15 +10856,15 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$198</v>
       </c>
       <c r="C199">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>77477</v>
       </c>
       <c r="D199">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>792000</v>
       </c>
     </row>
@@ -10874,15 +10873,15 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$199</v>
       </c>
       <c r="C200">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>78266</v>
       </c>
       <c r="D200">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>796000</v>
       </c>
     </row>
@@ -10891,15 +10890,15 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$200</v>
       </c>
       <c r="C201">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>79059</v>
       </c>
       <c r="D201">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>800000</v>
       </c>
     </row>
@@ -10908,15 +10907,15 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$201</v>
       </c>
       <c r="C202">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>79856</v>
       </c>
       <c r="D202">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>804000</v>
       </c>
     </row>
@@ -10925,15 +10924,15 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$202</v>
       </c>
       <c r="C203">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>80657</v>
       </c>
       <c r="D203">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>808000</v>
       </c>
     </row>
@@ -10942,15 +10941,15 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$203</v>
       </c>
       <c r="C204">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>81462</v>
       </c>
       <c r="D204">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>812000</v>
       </c>
     </row>
@@ -10959,15 +10958,15 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$204</v>
       </c>
       <c r="C205">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>82271</v>
       </c>
       <c r="D205">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>816000</v>
       </c>
     </row>
@@ -10976,15 +10975,15 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$205</v>
       </c>
       <c r="C206">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>83084</v>
       </c>
       <c r="D206">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>820000</v>
       </c>
     </row>
@@ -10993,15 +10992,15 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$206</v>
       </c>
       <c r="C207">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>83901</v>
       </c>
       <c r="D207">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>824000</v>
       </c>
     </row>
@@ -11010,15 +11009,15 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$207</v>
       </c>
       <c r="C208">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>84722</v>
       </c>
       <c r="D208">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>828000</v>
       </c>
     </row>
@@ -11027,15 +11026,15 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$208</v>
       </c>
       <c r="C209">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>85547</v>
       </c>
       <c r="D209">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>832000</v>
       </c>
     </row>
@@ -11044,15 +11043,15 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$209</v>
       </c>
       <c r="C210">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>86376</v>
       </c>
       <c r="D210">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>836000</v>
       </c>
     </row>
@@ -11061,15 +11060,15 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$210</v>
       </c>
       <c r="C211">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>87209</v>
       </c>
       <c r="D211">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>840000</v>
       </c>
     </row>
@@ -11078,15 +11077,15 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$211</v>
       </c>
       <c r="C212">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>88046</v>
       </c>
       <c r="D212">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>844000</v>
       </c>
     </row>
@@ -11095,15 +11094,15 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$212</v>
       </c>
       <c r="C213">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>88887</v>
       </c>
       <c r="D213">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>848000</v>
       </c>
     </row>
@@ -11112,15 +11111,15 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$213</v>
       </c>
       <c r="C214">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>89732</v>
       </c>
       <c r="D214">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>852000</v>
       </c>
     </row>
@@ -11129,15 +11128,15 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$214</v>
       </c>
       <c r="C215">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>90581</v>
       </c>
       <c r="D215">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>856000</v>
       </c>
     </row>
@@ -11146,15 +11145,15 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$215</v>
       </c>
       <c r="C216">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>91434</v>
       </c>
       <c r="D216">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>860000</v>
       </c>
     </row>
@@ -11163,15 +11162,15 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$216</v>
       </c>
       <c r="C217">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>92291</v>
       </c>
       <c r="D217">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>864000</v>
       </c>
     </row>
@@ -11180,15 +11179,15 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$217</v>
       </c>
       <c r="C218">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>93152</v>
       </c>
       <c r="D218">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>868000</v>
       </c>
     </row>
@@ -11197,15 +11196,15 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$218</v>
       </c>
       <c r="C219">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>94017</v>
       </c>
       <c r="D219">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>872000</v>
       </c>
     </row>
@@ -11214,15 +11213,15 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$219</v>
       </c>
       <c r="C220">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>94886</v>
       </c>
       <c r="D220">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>876000</v>
       </c>
     </row>
@@ -11231,15 +11230,15 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$220</v>
       </c>
       <c r="C221">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>95759</v>
       </c>
       <c r="D221">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>880000</v>
       </c>
     </row>
@@ -11248,15 +11247,15 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$221</v>
       </c>
       <c r="C222">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>96636</v>
       </c>
       <c r="D222">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>884000</v>
       </c>
     </row>
@@ -11265,15 +11264,15 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$222</v>
       </c>
       <c r="C223">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>97517</v>
       </c>
       <c r="D223">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>888000</v>
       </c>
     </row>
@@ -11282,15 +11281,15 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$223</v>
       </c>
       <c r="C224">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>98402</v>
       </c>
       <c r="D224">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>892000</v>
       </c>
     </row>
@@ -11299,15 +11298,15 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$224</v>
       </c>
       <c r="C225">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>99291</v>
       </c>
       <c r="D225">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>896000</v>
       </c>
     </row>
@@ -11316,15 +11315,15 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$225</v>
       </c>
       <c r="C226">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>100184</v>
       </c>
       <c r="D226">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>900000</v>
       </c>
     </row>
@@ -11333,15 +11332,15 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$226</v>
       </c>
       <c r="C227">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>101081</v>
       </c>
       <c r="D227">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>904000</v>
       </c>
     </row>
@@ -11350,15 +11349,15 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$227</v>
       </c>
       <c r="C228">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>101982</v>
       </c>
       <c r="D228">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>908000</v>
       </c>
     </row>
@@ -11367,15 +11366,15 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$228</v>
       </c>
       <c r="C229">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>102887</v>
       </c>
       <c r="D229">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>912000</v>
       </c>
     </row>
@@ -11384,15 +11383,15 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$229</v>
       </c>
       <c r="C230">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>103796</v>
       </c>
       <c r="D230">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>916000</v>
       </c>
     </row>
@@ -11401,15 +11400,15 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$230</v>
       </c>
       <c r="C231">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>104709</v>
       </c>
       <c r="D231">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>920000</v>
       </c>
     </row>
@@ -11418,15 +11417,15 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$231</v>
       </c>
       <c r="C232">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>105626</v>
       </c>
       <c r="D232">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>924000</v>
       </c>
     </row>
@@ -11435,15 +11434,15 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$232</v>
       </c>
       <c r="C233">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>106547</v>
       </c>
       <c r="D233">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>928000</v>
       </c>
     </row>
@@ -11452,15 +11451,15 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$233</v>
       </c>
       <c r="C234">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>107472</v>
       </c>
       <c r="D234">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>932000</v>
       </c>
     </row>
@@ -11469,15 +11468,15 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$234</v>
       </c>
       <c r="C235">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>108401</v>
       </c>
       <c r="D235">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>936000</v>
       </c>
     </row>
@@ -11486,15 +11485,15 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$235</v>
       </c>
       <c r="C236">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>109334</v>
       </c>
       <c r="D236">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>940000</v>
       </c>
     </row>
@@ -11503,15 +11502,15 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$236</v>
       </c>
       <c r="C237">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>110271</v>
       </c>
       <c r="D237">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>944000</v>
       </c>
     </row>
@@ -11520,15 +11519,15 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$237</v>
       </c>
       <c r="C238">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>111212</v>
       </c>
       <c r="D238">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>948000</v>
       </c>
     </row>
@@ -11537,15 +11536,15 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$238</v>
       </c>
       <c r="C239">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>112157</v>
       </c>
       <c r="D239">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>952000</v>
       </c>
     </row>
@@ -11554,15 +11553,15 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$239</v>
       </c>
       <c r="C240">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>113106</v>
       </c>
       <c r="D240">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>956000</v>
       </c>
     </row>
@@ -11571,15 +11570,15 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$240</v>
       </c>
       <c r="C241">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>114059</v>
       </c>
       <c r="D241">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>960000</v>
       </c>
     </row>
@@ -11588,15 +11587,15 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$241</v>
       </c>
       <c r="C242">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>115016</v>
       </c>
       <c r="D242">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>964000</v>
       </c>
     </row>
@@ -11605,15 +11604,15 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$242</v>
       </c>
       <c r="C243">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>115977</v>
       </c>
       <c r="D243">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>968000</v>
       </c>
     </row>
@@ -11622,15 +11621,15 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$243</v>
       </c>
       <c r="C244">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>116942</v>
       </c>
       <c r="D244">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>972000</v>
       </c>
     </row>
@@ -11639,15 +11638,15 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$244</v>
       </c>
       <c r="C245">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>117911</v>
       </c>
       <c r="D245">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>976000</v>
       </c>
     </row>
@@ -11656,15 +11655,15 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$245</v>
       </c>
       <c r="C246">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>118884</v>
       </c>
       <c r="D246">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>980000</v>
       </c>
     </row>
@@ -11673,15 +11672,15 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$246</v>
       </c>
       <c r="C247">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>119861</v>
       </c>
       <c r="D247">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>984000</v>
       </c>
     </row>
@@ -11690,15 +11689,15 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$247</v>
       </c>
       <c r="C248">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>120842</v>
       </c>
       <c r="D248">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>988000</v>
       </c>
     </row>
@@ -11707,15 +11706,15 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$248</v>
       </c>
       <c r="C249">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>121827</v>
       </c>
       <c r="D249">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>992000</v>
       </c>
     </row>
@@ -11724,15 +11723,15 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$249</v>
       </c>
       <c r="C250">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>122816</v>
       </c>
       <c r="D250">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>996000</v>
       </c>
     </row>
@@ -11741,15 +11740,15 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$250</v>
       </c>
       <c r="C251">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>123809</v>
       </c>
       <c r="D251">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1000000</v>
       </c>
     </row>
@@ -11758,15 +11757,15 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$251</v>
       </c>
       <c r="C252">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>124806</v>
       </c>
       <c r="D252">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1004000</v>
       </c>
     </row>
@@ -11775,15 +11774,15 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$252</v>
       </c>
       <c r="C253">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>125807</v>
       </c>
       <c r="D253">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1008000</v>
       </c>
     </row>
@@ -11792,15 +11791,15 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$253</v>
       </c>
       <c r="C254">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>126812</v>
       </c>
       <c r="D254">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1012000</v>
       </c>
     </row>
@@ -11809,15 +11808,15 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$254</v>
       </c>
       <c r="C255">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>127821</v>
       </c>
       <c r="D255">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1016000</v>
       </c>
     </row>
@@ -11826,15 +11825,15 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$255</v>
       </c>
       <c r="C256">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>128834</v>
       </c>
       <c r="D256">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1020000</v>
       </c>
     </row>
@@ -11843,15 +11842,15 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$256</v>
       </c>
       <c r="C257">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>129851</v>
       </c>
       <c r="D257">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1024000</v>
       </c>
     </row>
@@ -11860,15 +11859,15 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>$C$257</v>
       </c>
       <c r="C258">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>130872</v>
       </c>
       <c r="D258">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1028000</v>
       </c>
     </row>
@@ -11877,15 +11876,15 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="str">
-        <f t="shared" ref="B259:B322" si="13">IF(A259&gt;1,ADDRESS(INT(A259-1)+1,3),ADDRESS(1,6))</f>
+        <f t="shared" ref="B259:B322" si="14">IF(A259&gt;1,ADDRESS(INT(A259-1)+1,3),ADDRESS(1,6))</f>
         <v>$C$258</v>
       </c>
       <c r="C259">
-        <f t="shared" ref="C259:C322" ca="1" si="14">1*INDIRECT(B259)+4*A259-7</f>
+        <f t="shared" ref="C259:C322" ca="1" si="15">1*INDIRECT(B259)+4*A259-7</f>
         <v>131897</v>
       </c>
       <c r="D259">
-        <f t="shared" ref="D259:D322" si="15">4000*A259</f>
+        <f t="shared" ref="D259:D322" si="16">4000*A259</f>
         <v>1032000</v>
       </c>
     </row>
@@ -11894,15 +11893,15 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$259</v>
       </c>
       <c r="C260">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>132926</v>
       </c>
       <c r="D260">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1036000</v>
       </c>
     </row>
@@ -11911,15 +11910,15 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$260</v>
       </c>
       <c r="C261">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>133959</v>
       </c>
       <c r="D261">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1040000</v>
       </c>
     </row>
@@ -11928,15 +11927,15 @@
         <v>261</v>
       </c>
       <c r="B262" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$261</v>
       </c>
       <c r="C262">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>134996</v>
       </c>
       <c r="D262">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1044000</v>
       </c>
     </row>
@@ -11945,15 +11944,15 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$262</v>
       </c>
       <c r="C263">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>136037</v>
       </c>
       <c r="D263">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1048000</v>
       </c>
     </row>
@@ -11962,15 +11961,15 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$263</v>
       </c>
       <c r="C264">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>137082</v>
       </c>
       <c r="D264">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1052000</v>
       </c>
     </row>
@@ -11979,15 +11978,15 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$264</v>
       </c>
       <c r="C265">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>138131</v>
       </c>
       <c r="D265">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1056000</v>
       </c>
     </row>
@@ -11996,15 +11995,15 @@
         <v>265</v>
       </c>
       <c r="B266" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$265</v>
       </c>
       <c r="C266">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>139184</v>
       </c>
       <c r="D266">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1060000</v>
       </c>
     </row>
@@ -12013,15 +12012,15 @@
         <v>266</v>
       </c>
       <c r="B267" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$266</v>
       </c>
       <c r="C267">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>140241</v>
       </c>
       <c r="D267">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1064000</v>
       </c>
     </row>
@@ -12030,15 +12029,15 @@
         <v>267</v>
       </c>
       <c r="B268" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$267</v>
       </c>
       <c r="C268">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>141302</v>
       </c>
       <c r="D268">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1068000</v>
       </c>
     </row>
@@ -12047,15 +12046,15 @@
         <v>268</v>
       </c>
       <c r="B269" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$268</v>
       </c>
       <c r="C269">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>142367</v>
       </c>
       <c r="D269">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1072000</v>
       </c>
     </row>
@@ -12064,15 +12063,15 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$269</v>
       </c>
       <c r="C270">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>143436</v>
       </c>
       <c r="D270">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1076000</v>
       </c>
     </row>
@@ -12081,15 +12080,15 @@
         <v>270</v>
       </c>
       <c r="B271" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$270</v>
       </c>
       <c r="C271">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>144509</v>
       </c>
       <c r="D271">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1080000</v>
       </c>
     </row>
@@ -12098,15 +12097,15 @@
         <v>271</v>
       </c>
       <c r="B272" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$271</v>
       </c>
       <c r="C272">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>145586</v>
       </c>
       <c r="D272">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1084000</v>
       </c>
     </row>
@@ -12115,15 +12114,15 @@
         <v>272</v>
       </c>
       <c r="B273" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$272</v>
       </c>
       <c r="C273">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>146667</v>
       </c>
       <c r="D273">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1088000</v>
       </c>
     </row>
@@ -12132,15 +12131,15 @@
         <v>273</v>
       </c>
       <c r="B274" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$273</v>
       </c>
       <c r="C274">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>147752</v>
       </c>
       <c r="D274">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1092000</v>
       </c>
     </row>
@@ -12149,15 +12148,15 @@
         <v>274</v>
       </c>
       <c r="B275" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$274</v>
       </c>
       <c r="C275">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>148841</v>
       </c>
       <c r="D275">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1096000</v>
       </c>
     </row>
@@ -12166,15 +12165,15 @@
         <v>275</v>
       </c>
       <c r="B276" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$275</v>
       </c>
       <c r="C276">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>149934</v>
       </c>
       <c r="D276">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1100000</v>
       </c>
     </row>
@@ -12183,15 +12182,15 @@
         <v>276</v>
       </c>
       <c r="B277" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$276</v>
       </c>
       <c r="C277">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>151031</v>
       </c>
       <c r="D277">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1104000</v>
       </c>
     </row>
@@ -12200,15 +12199,15 @@
         <v>277</v>
       </c>
       <c r="B278" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$277</v>
       </c>
       <c r="C278">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>152132</v>
       </c>
       <c r="D278">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1108000</v>
       </c>
     </row>
@@ -12217,15 +12216,15 @@
         <v>278</v>
       </c>
       <c r="B279" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$278</v>
       </c>
       <c r="C279">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>153237</v>
       </c>
       <c r="D279">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1112000</v>
       </c>
     </row>
@@ -12234,15 +12233,15 @@
         <v>279</v>
       </c>
       <c r="B280" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$279</v>
       </c>
       <c r="C280">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>154346</v>
       </c>
       <c r="D280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1116000</v>
       </c>
     </row>
@@ -12251,15 +12250,15 @@
         <v>280</v>
       </c>
       <c r="B281" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$280</v>
       </c>
       <c r="C281">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>155459</v>
       </c>
       <c r="D281">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1120000</v>
       </c>
     </row>
@@ -12268,15 +12267,15 @@
         <v>281</v>
       </c>
       <c r="B282" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$281</v>
       </c>
       <c r="C282">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>156576</v>
       </c>
       <c r="D282">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1124000</v>
       </c>
     </row>
@@ -12285,15 +12284,15 @@
         <v>282</v>
       </c>
       <c r="B283" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$282</v>
       </c>
       <c r="C283">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>157697</v>
       </c>
       <c r="D283">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1128000</v>
       </c>
     </row>
@@ -12302,15 +12301,15 @@
         <v>283</v>
       </c>
       <c r="B284" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$283</v>
       </c>
       <c r="C284">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>158822</v>
       </c>
       <c r="D284">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1132000</v>
       </c>
     </row>
@@ -12319,15 +12318,15 @@
         <v>284</v>
       </c>
       <c r="B285" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$284</v>
       </c>
       <c r="C285">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>159951</v>
       </c>
       <c r="D285">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1136000</v>
       </c>
     </row>
@@ -12336,15 +12335,15 @@
         <v>285</v>
       </c>
       <c r="B286" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$285</v>
       </c>
       <c r="C286">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>161084</v>
       </c>
       <c r="D286">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1140000</v>
       </c>
     </row>
@@ -12353,15 +12352,15 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$286</v>
       </c>
       <c r="C287">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>162221</v>
       </c>
       <c r="D287">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1144000</v>
       </c>
     </row>
@@ -12370,15 +12369,15 @@
         <v>287</v>
       </c>
       <c r="B288" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$287</v>
       </c>
       <c r="C288">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>163362</v>
       </c>
       <c r="D288">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1148000</v>
       </c>
     </row>
@@ -12387,15 +12386,15 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$288</v>
       </c>
       <c r="C289">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>164507</v>
       </c>
       <c r="D289">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1152000</v>
       </c>
     </row>
@@ -12404,15 +12403,15 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$289</v>
       </c>
       <c r="C290">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>165656</v>
       </c>
       <c r="D290">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1156000</v>
       </c>
     </row>
@@ -12421,15 +12420,15 @@
         <v>290</v>
       </c>
       <c r="B291" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$290</v>
       </c>
       <c r="C291">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>166809</v>
       </c>
       <c r="D291">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1160000</v>
       </c>
     </row>
@@ -12438,15 +12437,15 @@
         <v>291</v>
       </c>
       <c r="B292" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$291</v>
       </c>
       <c r="C292">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>167966</v>
       </c>
       <c r="D292">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1164000</v>
       </c>
     </row>
@@ -12455,15 +12454,15 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$292</v>
       </c>
       <c r="C293">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>169127</v>
       </c>
       <c r="D293">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1168000</v>
       </c>
     </row>
@@ -12472,15 +12471,15 @@
         <v>293</v>
       </c>
       <c r="B294" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$293</v>
       </c>
       <c r="C294">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>170292</v>
       </c>
       <c r="D294">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1172000</v>
       </c>
     </row>
@@ -12489,15 +12488,15 @@
         <v>294</v>
       </c>
       <c r="B295" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$294</v>
       </c>
       <c r="C295">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>171461</v>
       </c>
       <c r="D295">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1176000</v>
       </c>
     </row>
@@ -12506,15 +12505,15 @@
         <v>295</v>
       </c>
       <c r="B296" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$295</v>
       </c>
       <c r="C296">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>172634</v>
       </c>
       <c r="D296">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1180000</v>
       </c>
     </row>
@@ -12523,15 +12522,15 @@
         <v>296</v>
       </c>
       <c r="B297" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$296</v>
       </c>
       <c r="C297">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>173811</v>
       </c>
       <c r="D297">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1184000</v>
       </c>
     </row>
@@ -12540,15 +12539,15 @@
         <v>297</v>
       </c>
       <c r="B298" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$297</v>
       </c>
       <c r="C298">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>174992</v>
       </c>
       <c r="D298">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1188000</v>
       </c>
     </row>
@@ -12557,15 +12556,15 @@
         <v>298</v>
       </c>
       <c r="B299" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$298</v>
       </c>
       <c r="C299">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>176177</v>
       </c>
       <c r="D299">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1192000</v>
       </c>
     </row>
@@ -12574,15 +12573,15 @@
         <v>299</v>
       </c>
       <c r="B300" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$299</v>
       </c>
       <c r="C300">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>177366</v>
       </c>
       <c r="D300">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1196000</v>
       </c>
     </row>
@@ -12591,15 +12590,15 @@
         <v>300</v>
       </c>
       <c r="B301" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$300</v>
       </c>
       <c r="C301">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>178559</v>
       </c>
       <c r="D301">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1200000</v>
       </c>
     </row>
@@ -12608,15 +12607,15 @@
         <v>301</v>
       </c>
       <c r="B302" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$301</v>
       </c>
       <c r="C302">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>179756</v>
       </c>
       <c r="D302">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1204000</v>
       </c>
     </row>
@@ -12625,15 +12624,15 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$302</v>
       </c>
       <c r="C303">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>180957</v>
       </c>
       <c r="D303">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1208000</v>
       </c>
     </row>
@@ -12642,15 +12641,15 @@
         <v>303</v>
       </c>
       <c r="B304" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$303</v>
       </c>
       <c r="C304">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>182162</v>
       </c>
       <c r="D304">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1212000</v>
       </c>
     </row>
@@ -12659,15 +12658,15 @@
         <v>304</v>
       </c>
       <c r="B305" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$304</v>
       </c>
       <c r="C305">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>183371</v>
       </c>
       <c r="D305">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1216000</v>
       </c>
     </row>
@@ -12676,15 +12675,15 @@
         <v>305</v>
       </c>
       <c r="B306" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$305</v>
       </c>
       <c r="C306">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>184584</v>
       </c>
       <c r="D306">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1220000</v>
       </c>
     </row>
@@ -12693,15 +12692,15 @@
         <v>306</v>
       </c>
       <c r="B307" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$306</v>
       </c>
       <c r="C307">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>185801</v>
       </c>
       <c r="D307">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1224000</v>
       </c>
     </row>
@@ -12710,15 +12709,15 @@
         <v>307</v>
       </c>
       <c r="B308" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$307</v>
       </c>
       <c r="C308">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>187022</v>
       </c>
       <c r="D308">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1228000</v>
       </c>
     </row>
@@ -12727,15 +12726,15 @@
         <v>308</v>
       </c>
       <c r="B309" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$308</v>
       </c>
       <c r="C309">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>188247</v>
       </c>
       <c r="D309">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1232000</v>
       </c>
     </row>
@@ -12744,15 +12743,15 @@
         <v>309</v>
       </c>
       <c r="B310" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$309</v>
       </c>
       <c r="C310">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>189476</v>
       </c>
       <c r="D310">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1236000</v>
       </c>
     </row>
@@ -12761,15 +12760,15 @@
         <v>310</v>
       </c>
       <c r="B311" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$310</v>
       </c>
       <c r="C311">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>190709</v>
       </c>
       <c r="D311">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1240000</v>
       </c>
     </row>
@@ -12778,15 +12777,15 @@
         <v>311</v>
       </c>
       <c r="B312" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$311</v>
       </c>
       <c r="C312">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>191946</v>
       </c>
       <c r="D312">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1244000</v>
       </c>
     </row>
@@ -12795,15 +12794,15 @@
         <v>312</v>
       </c>
       <c r="B313" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$312</v>
       </c>
       <c r="C313">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>193187</v>
       </c>
       <c r="D313">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1248000</v>
       </c>
     </row>
@@ -12812,15 +12811,15 @@
         <v>313</v>
       </c>
       <c r="B314" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$313</v>
       </c>
       <c r="C314">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>194432</v>
       </c>
       <c r="D314">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1252000</v>
       </c>
     </row>
@@ -12829,15 +12828,15 @@
         <v>314</v>
       </c>
       <c r="B315" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$314</v>
       </c>
       <c r="C315">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>195681</v>
       </c>
       <c r="D315">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1256000</v>
       </c>
     </row>
@@ -12846,15 +12845,15 @@
         <v>315</v>
       </c>
       <c r="B316" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$315</v>
       </c>
       <c r="C316">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>196934</v>
       </c>
       <c r="D316">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1260000</v>
       </c>
     </row>
@@ -12863,15 +12862,15 @@
         <v>316</v>
       </c>
       <c r="B317" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$316</v>
       </c>
       <c r="C317">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>198191</v>
       </c>
       <c r="D317">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1264000</v>
       </c>
     </row>
@@ -12880,15 +12879,15 @@
         <v>317</v>
       </c>
       <c r="B318" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$317</v>
       </c>
       <c r="C318">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>199452</v>
       </c>
       <c r="D318">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1268000</v>
       </c>
     </row>
@@ -12897,15 +12896,15 @@
         <v>318</v>
       </c>
       <c r="B319" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$318</v>
       </c>
       <c r="C319">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>200717</v>
       </c>
       <c r="D319">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1272000</v>
       </c>
     </row>
@@ -12914,15 +12913,15 @@
         <v>319</v>
       </c>
       <c r="B320" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$319</v>
       </c>
       <c r="C320">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>201986</v>
       </c>
       <c r="D320">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1276000</v>
       </c>
     </row>
@@ -12931,15 +12930,15 @@
         <v>320</v>
       </c>
       <c r="B321" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$320</v>
       </c>
       <c r="C321">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>203259</v>
       </c>
       <c r="D321">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1280000</v>
       </c>
     </row>
@@ -12948,15 +12947,15 @@
         <v>321</v>
       </c>
       <c r="B322" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>$C$321</v>
       </c>
       <c r="C322">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>204536</v>
       </c>
       <c r="D322">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1284000</v>
       </c>
     </row>
@@ -12965,15 +12964,15 @@
         <v>322</v>
       </c>
       <c r="B323" s="1" t="str">
-        <f t="shared" ref="B323:B386" si="16">IF(A323&gt;1,ADDRESS(INT(A323-1)+1,3),ADDRESS(1,6))</f>
+        <f t="shared" ref="B323:B386" si="17">IF(A323&gt;1,ADDRESS(INT(A323-1)+1,3),ADDRESS(1,6))</f>
         <v>$C$322</v>
       </c>
       <c r="C323">
-        <f t="shared" ref="C323:C386" ca="1" si="17">1*INDIRECT(B323)+4*A323-7</f>
+        <f t="shared" ref="C323:C386" ca="1" si="18">1*INDIRECT(B323)+4*A323-7</f>
         <v>205817</v>
       </c>
       <c r="D323">
-        <f t="shared" ref="D323:D386" si="18">4000*A323</f>
+        <f t="shared" ref="D323:D386" si="19">4000*A323</f>
         <v>1288000</v>
       </c>
     </row>
@@ -12982,15 +12981,15 @@
         <v>323</v>
       </c>
       <c r="B324" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$323</v>
       </c>
       <c r="C324">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>207102</v>
       </c>
       <c r="D324">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1292000</v>
       </c>
     </row>
@@ -12999,15 +12998,15 @@
         <v>324</v>
       </c>
       <c r="B325" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$324</v>
       </c>
       <c r="C325">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>208391</v>
       </c>
       <c r="D325">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1296000</v>
       </c>
     </row>
@@ -13016,15 +13015,15 @@
         <v>325</v>
       </c>
       <c r="B326" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$325</v>
       </c>
       <c r="C326">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>209684</v>
       </c>
       <c r="D326">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1300000</v>
       </c>
     </row>
@@ -13033,15 +13032,15 @@
         <v>326</v>
       </c>
       <c r="B327" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$326</v>
       </c>
       <c r="C327">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>210981</v>
       </c>
       <c r="D327">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1304000</v>
       </c>
     </row>
@@ -13050,15 +13049,15 @@
         <v>327</v>
       </c>
       <c r="B328" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$327</v>
       </c>
       <c r="C328">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>212282</v>
       </c>
       <c r="D328">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1308000</v>
       </c>
     </row>
@@ -13067,15 +13066,15 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$328</v>
       </c>
       <c r="C329">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>213587</v>
       </c>
       <c r="D329">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1312000</v>
       </c>
     </row>
@@ -13084,15 +13083,15 @@
         <v>329</v>
       </c>
       <c r="B330" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$329</v>
       </c>
       <c r="C330">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>214896</v>
       </c>
       <c r="D330">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1316000</v>
       </c>
     </row>
@@ -13101,15 +13100,15 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$330</v>
       </c>
       <c r="C331">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>216209</v>
       </c>
       <c r="D331">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1320000</v>
       </c>
     </row>
@@ -13118,15 +13117,15 @@
         <v>331</v>
       </c>
       <c r="B332" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$331</v>
       </c>
       <c r="C332">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>217526</v>
       </c>
       <c r="D332">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1324000</v>
       </c>
     </row>
@@ -13135,15 +13134,15 @@
         <v>332</v>
       </c>
       <c r="B333" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$332</v>
       </c>
       <c r="C333">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>218847</v>
       </c>
       <c r="D333">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1328000</v>
       </c>
     </row>
@@ -13152,15 +13151,15 @@
         <v>333</v>
       </c>
       <c r="B334" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$333</v>
       </c>
       <c r="C334">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>220172</v>
       </c>
       <c r="D334">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1332000</v>
       </c>
     </row>
@@ -13169,15 +13168,15 @@
         <v>334</v>
       </c>
       <c r="B335" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$334</v>
       </c>
       <c r="C335">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>221501</v>
       </c>
       <c r="D335">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1336000</v>
       </c>
     </row>
@@ -13186,15 +13185,15 @@
         <v>335</v>
       </c>
       <c r="B336" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$335</v>
       </c>
       <c r="C336">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>222834</v>
       </c>
       <c r="D336">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1340000</v>
       </c>
     </row>
@@ -13203,15 +13202,15 @@
         <v>336</v>
       </c>
       <c r="B337" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$336</v>
       </c>
       <c r="C337">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>224171</v>
       </c>
       <c r="D337">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1344000</v>
       </c>
     </row>
@@ -13220,15 +13219,15 @@
         <v>337</v>
       </c>
       <c r="B338" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$337</v>
       </c>
       <c r="C338">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>225512</v>
       </c>
       <c r="D338">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1348000</v>
       </c>
     </row>
@@ -13237,15 +13236,15 @@
         <v>338</v>
       </c>
       <c r="B339" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$338</v>
       </c>
       <c r="C339">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>226857</v>
       </c>
       <c r="D339">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1352000</v>
       </c>
     </row>
@@ -13254,15 +13253,15 @@
         <v>339</v>
       </c>
       <c r="B340" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$339</v>
       </c>
       <c r="C340">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>228206</v>
       </c>
       <c r="D340">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1356000</v>
       </c>
     </row>
@@ -13271,15 +13270,15 @@
         <v>340</v>
       </c>
       <c r="B341" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$340</v>
       </c>
       <c r="C341">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>229559</v>
       </c>
       <c r="D341">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1360000</v>
       </c>
     </row>
@@ -13288,15 +13287,15 @@
         <v>341</v>
       </c>
       <c r="B342" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$341</v>
       </c>
       <c r="C342">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>230916</v>
       </c>
       <c r="D342">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1364000</v>
       </c>
     </row>
@@ -13305,15 +13304,15 @@
         <v>342</v>
       </c>
       <c r="B343" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$342</v>
       </c>
       <c r="C343">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>232277</v>
       </c>
       <c r="D343">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1368000</v>
       </c>
     </row>
@@ -13322,15 +13321,15 @@
         <v>343</v>
       </c>
       <c r="B344" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$343</v>
       </c>
       <c r="C344">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>233642</v>
       </c>
       <c r="D344">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1372000</v>
       </c>
     </row>
@@ -13339,15 +13338,15 @@
         <v>344</v>
       </c>
       <c r="B345" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$344</v>
       </c>
       <c r="C345">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>235011</v>
       </c>
       <c r="D345">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1376000</v>
       </c>
     </row>
@@ -13356,15 +13355,15 @@
         <v>345</v>
       </c>
       <c r="B346" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$345</v>
       </c>
       <c r="C346">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>236384</v>
       </c>
       <c r="D346">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1380000</v>
       </c>
     </row>
@@ -13373,15 +13372,15 @@
         <v>346</v>
       </c>
       <c r="B347" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$346</v>
       </c>
       <c r="C347">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>237761</v>
       </c>
       <c r="D347">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1384000</v>
       </c>
     </row>
@@ -13390,15 +13389,15 @@
         <v>347</v>
       </c>
       <c r="B348" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$347</v>
       </c>
       <c r="C348">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>239142</v>
       </c>
       <c r="D348">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1388000</v>
       </c>
     </row>
@@ -13407,15 +13406,15 @@
         <v>348</v>
       </c>
       <c r="B349" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$348</v>
       </c>
       <c r="C349">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>240527</v>
       </c>
       <c r="D349">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1392000</v>
       </c>
     </row>
@@ -13424,15 +13423,15 @@
         <v>349</v>
       </c>
       <c r="B350" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$349</v>
       </c>
       <c r="C350">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>241916</v>
       </c>
       <c r="D350">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1396000</v>
       </c>
     </row>
@@ -13441,15 +13440,15 @@
         <v>350</v>
       </c>
       <c r="B351" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$350</v>
       </c>
       <c r="C351">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>243309</v>
       </c>
       <c r="D351">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1400000</v>
       </c>
     </row>
@@ -13458,15 +13457,15 @@
         <v>351</v>
       </c>
       <c r="B352" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$351</v>
       </c>
       <c r="C352">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>244706</v>
       </c>
       <c r="D352">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1404000</v>
       </c>
     </row>
@@ -13475,15 +13474,15 @@
         <v>352</v>
       </c>
       <c r="B353" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$352</v>
       </c>
       <c r="C353">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>246107</v>
       </c>
       <c r="D353">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1408000</v>
       </c>
     </row>
@@ -13492,15 +13491,15 @@
         <v>353</v>
       </c>
       <c r="B354" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$353</v>
       </c>
       <c r="C354">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>247512</v>
       </c>
       <c r="D354">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1412000</v>
       </c>
     </row>
@@ -13509,15 +13508,15 @@
         <v>354</v>
       </c>
       <c r="B355" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$354</v>
       </c>
       <c r="C355">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>248921</v>
       </c>
       <c r="D355">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1416000</v>
       </c>
     </row>
@@ -13526,15 +13525,15 @@
         <v>355</v>
       </c>
       <c r="B356" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$355</v>
       </c>
       <c r="C356">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>250334</v>
       </c>
       <c r="D356">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1420000</v>
       </c>
     </row>
@@ -13543,15 +13542,15 @@
         <v>356</v>
       </c>
       <c r="B357" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$356</v>
       </c>
       <c r="C357">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>251751</v>
       </c>
       <c r="D357">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1424000</v>
       </c>
     </row>
@@ -13560,15 +13559,15 @@
         <v>357</v>
       </c>
       <c r="B358" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$357</v>
       </c>
       <c r="C358">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>253172</v>
       </c>
       <c r="D358">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1428000</v>
       </c>
     </row>
@@ -13577,15 +13576,15 @@
         <v>358</v>
       </c>
       <c r="B359" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$358</v>
       </c>
       <c r="C359">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>254597</v>
       </c>
       <c r="D359">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1432000</v>
       </c>
     </row>
@@ -13594,15 +13593,15 @@
         <v>359</v>
       </c>
       <c r="B360" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$359</v>
       </c>
       <c r="C360">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>256026</v>
       </c>
       <c r="D360">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1436000</v>
       </c>
     </row>
@@ -13611,15 +13610,15 @@
         <v>360</v>
       </c>
       <c r="B361" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$360</v>
       </c>
       <c r="C361">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>257459</v>
       </c>
       <c r="D361">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1440000</v>
       </c>
     </row>
@@ -13628,15 +13627,15 @@
         <v>361</v>
       </c>
       <c r="B362" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$361</v>
       </c>
       <c r="C362">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>258896</v>
       </c>
       <c r="D362">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1444000</v>
       </c>
     </row>
@@ -13645,15 +13644,15 @@
         <v>362</v>
       </c>
       <c r="B363" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$362</v>
       </c>
       <c r="C363">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>260337</v>
       </c>
       <c r="D363">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1448000</v>
       </c>
     </row>
@@ -13662,15 +13661,15 @@
         <v>363</v>
       </c>
       <c r="B364" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$363</v>
       </c>
       <c r="C364">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>261782</v>
       </c>
       <c r="D364">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1452000</v>
       </c>
     </row>
@@ -13679,15 +13678,15 @@
         <v>364</v>
       </c>
       <c r="B365" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$364</v>
       </c>
       <c r="C365">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>263231</v>
       </c>
       <c r="D365">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1456000</v>
       </c>
     </row>
@@ -13696,15 +13695,15 @@
         <v>365</v>
       </c>
       <c r="B366" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$365</v>
       </c>
       <c r="C366">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>264684</v>
       </c>
       <c r="D366">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1460000</v>
       </c>
     </row>
@@ -13713,15 +13712,15 @@
         <v>366</v>
       </c>
       <c r="B367" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$366</v>
       </c>
       <c r="C367">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>266141</v>
       </c>
       <c r="D367">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1464000</v>
       </c>
     </row>
@@ -13730,15 +13729,15 @@
         <v>367</v>
       </c>
       <c r="B368" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$367</v>
       </c>
       <c r="C368">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>267602</v>
       </c>
       <c r="D368">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1468000</v>
       </c>
     </row>
@@ -13747,15 +13746,15 @@
         <v>368</v>
       </c>
       <c r="B369" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$368</v>
       </c>
       <c r="C369">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>269067</v>
       </c>
       <c r="D369">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1472000</v>
       </c>
     </row>
@@ -13764,15 +13763,15 @@
         <v>369</v>
       </c>
       <c r="B370" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$369</v>
       </c>
       <c r="C370">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>270536</v>
       </c>
       <c r="D370">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1476000</v>
       </c>
     </row>
@@ -13781,15 +13780,15 @@
         <v>370</v>
       </c>
       <c r="B371" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$370</v>
       </c>
       <c r="C371">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>272009</v>
       </c>
       <c r="D371">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1480000</v>
       </c>
     </row>
@@ -13798,15 +13797,15 @@
         <v>371</v>
       </c>
       <c r="B372" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$371</v>
       </c>
       <c r="C372">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>273486</v>
       </c>
       <c r="D372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1484000</v>
       </c>
     </row>
@@ -13815,15 +13814,15 @@
         <v>372</v>
       </c>
       <c r="B373" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$372</v>
       </c>
       <c r="C373">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>274967</v>
       </c>
       <c r="D373">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1488000</v>
       </c>
     </row>
@@ -13832,15 +13831,15 @@
         <v>373</v>
       </c>
       <c r="B374" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$373</v>
       </c>
       <c r="C374">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>276452</v>
       </c>
       <c r="D374">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1492000</v>
       </c>
     </row>
@@ -13849,15 +13848,15 @@
         <v>374</v>
       </c>
       <c r="B375" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$374</v>
       </c>
       <c r="C375">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>277941</v>
       </c>
       <c r="D375">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1496000</v>
       </c>
     </row>
@@ -13866,15 +13865,15 @@
         <v>375</v>
       </c>
       <c r="B376" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$375</v>
       </c>
       <c r="C376">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>279434</v>
       </c>
       <c r="D376">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1500000</v>
       </c>
     </row>
@@ -13883,15 +13882,15 @@
         <v>376</v>
       </c>
       <c r="B377" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$376</v>
       </c>
       <c r="C377">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>280931</v>
       </c>
       <c r="D377">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1504000</v>
       </c>
     </row>
@@ -13900,15 +13899,15 @@
         <v>377</v>
       </c>
       <c r="B378" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$377</v>
       </c>
       <c r="C378">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>282432</v>
       </c>
       <c r="D378">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1508000</v>
       </c>
     </row>
@@ -13917,15 +13916,15 @@
         <v>378</v>
       </c>
       <c r="B379" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$378</v>
       </c>
       <c r="C379">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>283937</v>
       </c>
       <c r="D379">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1512000</v>
       </c>
     </row>
@@ -13934,15 +13933,15 @@
         <v>379</v>
       </c>
       <c r="B380" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$379</v>
       </c>
       <c r="C380">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>285446</v>
       </c>
       <c r="D380">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1516000</v>
       </c>
     </row>
@@ -13951,15 +13950,15 @@
         <v>380</v>
       </c>
       <c r="B381" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$380</v>
       </c>
       <c r="C381">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>286959</v>
       </c>
       <c r="D381">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1520000</v>
       </c>
     </row>
@@ -13968,15 +13967,15 @@
         <v>381</v>
       </c>
       <c r="B382" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$381</v>
       </c>
       <c r="C382">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>288476</v>
       </c>
       <c r="D382">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1524000</v>
       </c>
     </row>
@@ -13985,15 +13984,15 @@
         <v>382</v>
       </c>
       <c r="B383" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$382</v>
       </c>
       <c r="C383">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>289997</v>
       </c>
       <c r="D383">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1528000</v>
       </c>
     </row>
@@ -14002,15 +14001,15 @@
         <v>383</v>
       </c>
       <c r="B384" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$383</v>
       </c>
       <c r="C384">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>291522</v>
       </c>
       <c r="D384">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1532000</v>
       </c>
     </row>
@@ -14019,15 +14018,15 @@
         <v>384</v>
       </c>
       <c r="B385" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$384</v>
       </c>
       <c r="C385">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>293051</v>
       </c>
       <c r="D385">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1536000</v>
       </c>
     </row>
@@ -14036,15 +14035,15 @@
         <v>385</v>
       </c>
       <c r="B386" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>$C$385</v>
       </c>
       <c r="C386">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>294584</v>
       </c>
       <c r="D386">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1540000</v>
       </c>
     </row>
@@ -14053,15 +14052,15 @@
         <v>386</v>
       </c>
       <c r="B387" s="1" t="str">
-        <f t="shared" ref="B387:B450" si="19">IF(A387&gt;1,ADDRESS(INT(A387-1)+1,3),ADDRESS(1,6))</f>
+        <f t="shared" ref="B387:B450" si="20">IF(A387&gt;1,ADDRESS(INT(A387-1)+1,3),ADDRESS(1,6))</f>
         <v>$C$386</v>
       </c>
       <c r="C387">
-        <f t="shared" ref="C387:C450" ca="1" si="20">1*INDIRECT(B387)+4*A387-7</f>
+        <f t="shared" ref="C387:C450" ca="1" si="21">1*INDIRECT(B387)+4*A387-7</f>
         <v>296121</v>
       </c>
       <c r="D387">
-        <f t="shared" ref="D387:D450" si="21">4000*A387</f>
+        <f t="shared" ref="D387:D450" si="22">4000*A387</f>
         <v>1544000</v>
       </c>
     </row>
@@ -14070,15 +14069,15 @@
         <v>387</v>
       </c>
       <c r="B388" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$387</v>
       </c>
       <c r="C388">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>297662</v>
       </c>
       <c r="D388">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1548000</v>
       </c>
     </row>
@@ -14087,15 +14086,15 @@
         <v>388</v>
       </c>
       <c r="B389" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$388</v>
       </c>
       <c r="C389">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>299207</v>
       </c>
       <c r="D389">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1552000</v>
       </c>
     </row>
@@ -14104,15 +14103,15 @@
         <v>389</v>
       </c>
       <c r="B390" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$389</v>
       </c>
       <c r="C390">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>300756</v>
       </c>
       <c r="D390">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1556000</v>
       </c>
     </row>
@@ -14121,15 +14120,15 @@
         <v>390</v>
       </c>
       <c r="B391" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$390</v>
       </c>
       <c r="C391">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>302309</v>
       </c>
       <c r="D391">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1560000</v>
       </c>
     </row>
@@ -14138,15 +14137,15 @@
         <v>391</v>
       </c>
       <c r="B392" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$391</v>
       </c>
       <c r="C392">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>303866</v>
       </c>
       <c r="D392">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1564000</v>
       </c>
     </row>
@@ -14155,15 +14154,15 @@
         <v>392</v>
       </c>
       <c r="B393" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$392</v>
       </c>
       <c r="C393">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>305427</v>
       </c>
       <c r="D393">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1568000</v>
       </c>
     </row>
@@ -14172,15 +14171,15 @@
         <v>393</v>
       </c>
       <c r="B394" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$393</v>
       </c>
       <c r="C394">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>306992</v>
       </c>
       <c r="D394">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1572000</v>
       </c>
     </row>
@@ -14189,15 +14188,15 @@
         <v>394</v>
       </c>
       <c r="B395" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$394</v>
       </c>
       <c r="C395">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>308561</v>
       </c>
       <c r="D395">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1576000</v>
       </c>
     </row>
@@ -14206,15 +14205,15 @@
         <v>395</v>
       </c>
       <c r="B396" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$395</v>
       </c>
       <c r="C396">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>310134</v>
       </c>
       <c r="D396">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1580000</v>
       </c>
     </row>
@@ -14223,15 +14222,15 @@
         <v>396</v>
       </c>
       <c r="B397" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$396</v>
       </c>
       <c r="C397">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>311711</v>
       </c>
       <c r="D397">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1584000</v>
       </c>
     </row>
@@ -14240,15 +14239,15 @@
         <v>397</v>
       </c>
       <c r="B398" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$397</v>
       </c>
       <c r="C398">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>313292</v>
       </c>
       <c r="D398">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1588000</v>
       </c>
     </row>
@@ -14257,15 +14256,15 @@
         <v>398</v>
       </c>
       <c r="B399" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$398</v>
       </c>
       <c r="C399">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>314877</v>
       </c>
       <c r="D399">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1592000</v>
       </c>
     </row>
@@ -14274,15 +14273,15 @@
         <v>399</v>
       </c>
       <c r="B400" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$399</v>
       </c>
       <c r="C400">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>316466</v>
       </c>
       <c r="D400">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1596000</v>
       </c>
     </row>
@@ -14291,15 +14290,15 @@
         <v>400</v>
       </c>
       <c r="B401" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$400</v>
       </c>
       <c r="C401">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>318059</v>
       </c>
       <c r="D401">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1600000</v>
       </c>
     </row>
@@ -14308,15 +14307,15 @@
         <v>401</v>
       </c>
       <c r="B402" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$401</v>
       </c>
       <c r="C402">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>319656</v>
       </c>
       <c r="D402">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1604000</v>
       </c>
     </row>
@@ -14325,15 +14324,15 @@
         <v>402</v>
       </c>
       <c r="B403" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$402</v>
       </c>
       <c r="C403">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>321257</v>
       </c>
       <c r="D403">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1608000</v>
       </c>
     </row>
@@ -14342,15 +14341,15 @@
         <v>403</v>
       </c>
       <c r="B404" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$403</v>
       </c>
       <c r="C404">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>322862</v>
       </c>
       <c r="D404">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1612000</v>
       </c>
     </row>
@@ -14359,15 +14358,15 @@
         <v>404</v>
       </c>
       <c r="B405" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$404</v>
       </c>
       <c r="C405">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>324471</v>
       </c>
       <c r="D405">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1616000</v>
       </c>
     </row>
@@ -14376,15 +14375,15 @@
         <v>405</v>
       </c>
       <c r="B406" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$405</v>
       </c>
       <c r="C406">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>326084</v>
       </c>
       <c r="D406">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1620000</v>
       </c>
     </row>
@@ -14393,15 +14392,15 @@
         <v>406</v>
       </c>
       <c r="B407" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$406</v>
       </c>
       <c r="C407">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>327701</v>
       </c>
       <c r="D407">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1624000</v>
       </c>
     </row>
@@ -14410,15 +14409,15 @@
         <v>407</v>
       </c>
       <c r="B408" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$407</v>
       </c>
       <c r="C408">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>329322</v>
       </c>
       <c r="D408">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1628000</v>
       </c>
     </row>
@@ -14427,15 +14426,15 @@
         <v>408</v>
       </c>
       <c r="B409" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$408</v>
       </c>
       <c r="C409">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>330947</v>
       </c>
       <c r="D409">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1632000</v>
       </c>
     </row>
@@ -14444,15 +14443,15 @@
         <v>409</v>
       </c>
       <c r="B410" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$409</v>
       </c>
       <c r="C410">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>332576</v>
       </c>
       <c r="D410">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1636000</v>
       </c>
     </row>
@@ -14461,15 +14460,15 @@
         <v>410</v>
       </c>
       <c r="B411" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$410</v>
       </c>
       <c r="C411">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>334209</v>
       </c>
       <c r="D411">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1640000</v>
       </c>
     </row>
@@ -14478,15 +14477,15 @@
         <v>411</v>
       </c>
       <c r="B412" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$411</v>
       </c>
       <c r="C412">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>335846</v>
       </c>
       <c r="D412">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1644000</v>
       </c>
     </row>
@@ -14495,15 +14494,15 @@
         <v>412</v>
       </c>
       <c r="B413" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$412</v>
       </c>
       <c r="C413">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>337487</v>
       </c>
       <c r="D413">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1648000</v>
       </c>
     </row>
@@ -14512,15 +14511,15 @@
         <v>413</v>
       </c>
       <c r="B414" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$413</v>
       </c>
       <c r="C414">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>339132</v>
       </c>
       <c r="D414">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1652000</v>
       </c>
     </row>
@@ -14529,15 +14528,15 @@
         <v>414</v>
       </c>
       <c r="B415" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$414</v>
       </c>
       <c r="C415">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>340781</v>
       </c>
       <c r="D415">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1656000</v>
       </c>
     </row>
@@ -14546,15 +14545,15 @@
         <v>415</v>
       </c>
       <c r="B416" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$415</v>
       </c>
       <c r="C416">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>342434</v>
       </c>
       <c r="D416">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1660000</v>
       </c>
     </row>
@@ -14563,15 +14562,15 @@
         <v>416</v>
       </c>
       <c r="B417" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$416</v>
       </c>
       <c r="C417">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>344091</v>
       </c>
       <c r="D417">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1664000</v>
       </c>
     </row>
@@ -14580,15 +14579,15 @@
         <v>417</v>
       </c>
       <c r="B418" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$417</v>
       </c>
       <c r="C418">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>345752</v>
       </c>
       <c r="D418">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1668000</v>
       </c>
     </row>
@@ -14597,15 +14596,15 @@
         <v>418</v>
       </c>
       <c r="B419" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$418</v>
       </c>
       <c r="C419">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>347417</v>
       </c>
       <c r="D419">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1672000</v>
       </c>
     </row>
@@ -14614,15 +14613,15 @@
         <v>419</v>
       </c>
       <c r="B420" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$419</v>
       </c>
       <c r="C420">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>349086</v>
       </c>
       <c r="D420">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1676000</v>
       </c>
     </row>
@@ -14631,15 +14630,15 @@
         <v>420</v>
       </c>
       <c r="B421" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$420</v>
       </c>
       <c r="C421">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>350759</v>
       </c>
       <c r="D421">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1680000</v>
       </c>
     </row>
@@ -14648,15 +14647,15 @@
         <v>421</v>
       </c>
       <c r="B422" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$421</v>
       </c>
       <c r="C422">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>352436</v>
       </c>
       <c r="D422">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1684000</v>
       </c>
     </row>
@@ -14665,15 +14664,15 @@
         <v>422</v>
       </c>
       <c r="B423" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$422</v>
       </c>
       <c r="C423">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>354117</v>
       </c>
       <c r="D423">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1688000</v>
       </c>
     </row>
@@ -14682,15 +14681,15 @@
         <v>423</v>
       </c>
       <c r="B424" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$423</v>
       </c>
       <c r="C424">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>355802</v>
       </c>
       <c r="D424">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1692000</v>
       </c>
     </row>
@@ -14699,15 +14698,15 @@
         <v>424</v>
       </c>
       <c r="B425" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$424</v>
       </c>
       <c r="C425">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>357491</v>
       </c>
       <c r="D425">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1696000</v>
       </c>
     </row>
@@ -14716,15 +14715,15 @@
         <v>425</v>
       </c>
       <c r="B426" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$425</v>
       </c>
       <c r="C426">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>359184</v>
       </c>
       <c r="D426">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1700000</v>
       </c>
     </row>
@@ -14733,15 +14732,15 @@
         <v>426</v>
       </c>
       <c r="B427" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$426</v>
       </c>
       <c r="C427">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>360881</v>
       </c>
       <c r="D427">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1704000</v>
       </c>
     </row>
@@ -14750,15 +14749,15 @@
         <v>427</v>
       </c>
       <c r="B428" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$427</v>
       </c>
       <c r="C428">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>362582</v>
       </c>
       <c r="D428">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1708000</v>
       </c>
     </row>
@@ -14767,15 +14766,15 @@
         <v>428</v>
       </c>
       <c r="B429" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$428</v>
       </c>
       <c r="C429">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>364287</v>
       </c>
       <c r="D429">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1712000</v>
       </c>
     </row>
@@ -14784,15 +14783,15 @@
         <v>429</v>
       </c>
       <c r="B430" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$429</v>
       </c>
       <c r="C430">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>365996</v>
       </c>
       <c r="D430">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1716000</v>
       </c>
     </row>
@@ -14801,15 +14800,15 @@
         <v>430</v>
       </c>
       <c r="B431" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$430</v>
       </c>
       <c r="C431">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>367709</v>
       </c>
       <c r="D431">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1720000</v>
       </c>
     </row>
@@ -14818,15 +14817,15 @@
         <v>431</v>
       </c>
       <c r="B432" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$431</v>
       </c>
       <c r="C432">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>369426</v>
       </c>
       <c r="D432">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1724000</v>
       </c>
     </row>
@@ -14835,15 +14834,15 @@
         <v>432</v>
       </c>
       <c r="B433" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$432</v>
       </c>
       <c r="C433">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>371147</v>
       </c>
       <c r="D433">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1728000</v>
       </c>
     </row>
@@ -14852,15 +14851,15 @@
         <v>433</v>
       </c>
       <c r="B434" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$433</v>
       </c>
       <c r="C434">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>372872</v>
       </c>
       <c r="D434">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1732000</v>
       </c>
     </row>
@@ -14869,15 +14868,15 @@
         <v>434</v>
       </c>
       <c r="B435" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$434</v>
       </c>
       <c r="C435">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>374601</v>
       </c>
       <c r="D435">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1736000</v>
       </c>
     </row>
@@ -14886,15 +14885,15 @@
         <v>435</v>
       </c>
       <c r="B436" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$435</v>
       </c>
       <c r="C436">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>376334</v>
       </c>
       <c r="D436">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1740000</v>
       </c>
     </row>
@@ -14903,15 +14902,15 @@
         <v>436</v>
       </c>
       <c r="B437" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$436</v>
       </c>
       <c r="C437">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>378071</v>
       </c>
       <c r="D437">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1744000</v>
       </c>
     </row>
@@ -14920,15 +14919,15 @@
         <v>437</v>
       </c>
       <c r="B438" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$437</v>
       </c>
       <c r="C438">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>379812</v>
       </c>
       <c r="D438">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1748000</v>
       </c>
     </row>
@@ -14937,15 +14936,15 @@
         <v>438</v>
       </c>
       <c r="B439" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$438</v>
       </c>
       <c r="C439">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>381557</v>
       </c>
       <c r="D439">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1752000</v>
       </c>
     </row>
@@ -14954,15 +14953,15 @@
         <v>439</v>
       </c>
       <c r="B440" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$439</v>
       </c>
       <c r="C440">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>383306</v>
       </c>
       <c r="D440">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1756000</v>
       </c>
     </row>
@@ -14971,15 +14970,15 @@
         <v>440</v>
       </c>
       <c r="B441" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$440</v>
       </c>
       <c r="C441">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>385059</v>
       </c>
       <c r="D441">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1760000</v>
       </c>
     </row>
@@ -14988,15 +14987,15 @@
         <v>441</v>
       </c>
       <c r="B442" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$441</v>
       </c>
       <c r="C442">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>386816</v>
       </c>
       <c r="D442">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1764000</v>
       </c>
     </row>
@@ -15005,15 +15004,15 @@
         <v>442</v>
       </c>
       <c r="B443" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$442</v>
       </c>
       <c r="C443">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>388577</v>
       </c>
       <c r="D443">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1768000</v>
       </c>
     </row>
@@ -15022,15 +15021,15 @@
         <v>443</v>
       </c>
       <c r="B444" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$443</v>
       </c>
       <c r="C444">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>390342</v>
       </c>
       <c r="D444">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1772000</v>
       </c>
     </row>
@@ -15039,15 +15038,15 @@
         <v>444</v>
       </c>
       <c r="B445" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$444</v>
       </c>
       <c r="C445">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>392111</v>
       </c>
       <c r="D445">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1776000</v>
       </c>
     </row>
@@ -15056,15 +15055,15 @@
         <v>445</v>
       </c>
       <c r="B446" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$445</v>
       </c>
       <c r="C446">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>393884</v>
       </c>
       <c r="D446">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1780000</v>
       </c>
     </row>
@@ -15073,15 +15072,15 @@
         <v>446</v>
       </c>
       <c r="B447" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$446</v>
       </c>
       <c r="C447">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>395661</v>
       </c>
       <c r="D447">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1784000</v>
       </c>
     </row>
@@ -15090,15 +15089,15 @@
         <v>447</v>
       </c>
       <c r="B448" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$447</v>
       </c>
       <c r="C448">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>397442</v>
       </c>
       <c r="D448">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1788000</v>
       </c>
     </row>
@@ -15107,15 +15106,15 @@
         <v>448</v>
       </c>
       <c r="B449" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$448</v>
       </c>
       <c r="C449">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>399227</v>
       </c>
       <c r="D449">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1792000</v>
       </c>
     </row>
@@ -15124,15 +15123,15 @@
         <v>449</v>
       </c>
       <c r="B450" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>$C$449</v>
       </c>
       <c r="C450">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>401016</v>
       </c>
       <c r="D450">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1796000</v>
       </c>
     </row>
@@ -15141,15 +15140,15 @@
         <v>450</v>
       </c>
       <c r="B451" s="1" t="str">
-        <f t="shared" ref="B451:B513" si="22">IF(A451&gt;1,ADDRESS(INT(A451-1)+1,3),ADDRESS(1,6))</f>
+        <f t="shared" ref="B451:B513" si="23">IF(A451&gt;1,ADDRESS(INT(A451-1)+1,3),ADDRESS(1,6))</f>
         <v>$C$450</v>
       </c>
       <c r="C451">
-        <f t="shared" ref="C451:C513" ca="1" si="23">1*INDIRECT(B451)+4*A451-7</f>
+        <f t="shared" ref="C451:C513" ca="1" si="24">1*INDIRECT(B451)+4*A451-7</f>
         <v>402809</v>
       </c>
       <c r="D451">
-        <f t="shared" ref="D451:D513" si="24">4000*A451</f>
+        <f t="shared" ref="D451:D513" si="25">4000*A451</f>
         <v>1800000</v>
       </c>
     </row>
@@ -15158,15 +15157,15 @@
         <v>451</v>
       </c>
       <c r="B452" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$451</v>
       </c>
       <c r="C452">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>404606</v>
       </c>
       <c r="D452">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1804000</v>
       </c>
     </row>
@@ -15175,15 +15174,15 @@
         <v>452</v>
       </c>
       <c r="B453" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$452</v>
       </c>
       <c r="C453">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>406407</v>
       </c>
       <c r="D453">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1808000</v>
       </c>
     </row>
@@ -15192,15 +15191,15 @@
         <v>453</v>
       </c>
       <c r="B454" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$453</v>
       </c>
       <c r="C454">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>408212</v>
       </c>
       <c r="D454">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1812000</v>
       </c>
     </row>
@@ -15209,15 +15208,15 @@
         <v>454</v>
       </c>
       <c r="B455" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$454</v>
       </c>
       <c r="C455">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>410021</v>
       </c>
       <c r="D455">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1816000</v>
       </c>
     </row>
@@ -15226,15 +15225,15 @@
         <v>455</v>
       </c>
       <c r="B456" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$455</v>
       </c>
       <c r="C456">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>411834</v>
       </c>
       <c r="D456">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1820000</v>
       </c>
     </row>
@@ -15243,15 +15242,15 @@
         <v>456</v>
       </c>
       <c r="B457" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$456</v>
       </c>
       <c r="C457">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>413651</v>
       </c>
       <c r="D457">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1824000</v>
       </c>
     </row>
@@ -15260,15 +15259,15 @@
         <v>457</v>
       </c>
       <c r="B458" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$457</v>
       </c>
       <c r="C458">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>415472</v>
       </c>
       <c r="D458">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1828000</v>
       </c>
     </row>
@@ -15277,15 +15276,15 @@
         <v>458</v>
       </c>
       <c r="B459" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$458</v>
       </c>
       <c r="C459">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>417297</v>
       </c>
       <c r="D459">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1832000</v>
       </c>
     </row>
@@ -15294,15 +15293,15 @@
         <v>459</v>
       </c>
       <c r="B460" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$459</v>
       </c>
       <c r="C460">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>419126</v>
       </c>
       <c r="D460">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1836000</v>
       </c>
     </row>
@@ -15311,15 +15310,15 @@
         <v>460</v>
       </c>
       <c r="B461" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$460</v>
       </c>
       <c r="C461">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>420959</v>
       </c>
       <c r="D461">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1840000</v>
       </c>
     </row>
@@ -15328,15 +15327,15 @@
         <v>461</v>
       </c>
       <c r="B462" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$461</v>
       </c>
       <c r="C462">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>422796</v>
       </c>
       <c r="D462">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1844000</v>
       </c>
     </row>
@@ -15345,15 +15344,15 @@
         <v>462</v>
       </c>
       <c r="B463" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$462</v>
       </c>
       <c r="C463">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>424637</v>
       </c>
       <c r="D463">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1848000</v>
       </c>
     </row>
@@ -15362,15 +15361,15 @@
         <v>463</v>
       </c>
       <c r="B464" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$463</v>
       </c>
       <c r="C464">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>426482</v>
       </c>
       <c r="D464">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1852000</v>
       </c>
     </row>
@@ -15379,15 +15378,15 @@
         <v>464</v>
       </c>
       <c r="B465" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$464</v>
       </c>
       <c r="C465">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>428331</v>
       </c>
       <c r="D465">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1856000</v>
       </c>
     </row>
@@ -15396,15 +15395,15 @@
         <v>465</v>
       </c>
       <c r="B466" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$465</v>
       </c>
       <c r="C466">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>430184</v>
       </c>
       <c r="D466">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1860000</v>
       </c>
     </row>
@@ -15413,15 +15412,15 @@
         <v>466</v>
       </c>
       <c r="B467" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$466</v>
       </c>
       <c r="C467">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>432041</v>
       </c>
       <c r="D467">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1864000</v>
       </c>
     </row>
@@ -15430,15 +15429,15 @@
         <v>467</v>
       </c>
       <c r="B468" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$467</v>
       </c>
       <c r="C468">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>433902</v>
       </c>
       <c r="D468">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1868000</v>
       </c>
     </row>
@@ -15447,15 +15446,15 @@
         <v>468</v>
       </c>
       <c r="B469" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$468</v>
       </c>
       <c r="C469">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>435767</v>
       </c>
       <c r="D469">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1872000</v>
       </c>
     </row>
@@ -15464,15 +15463,15 @@
         <v>469</v>
       </c>
       <c r="B470" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$469</v>
       </c>
       <c r="C470">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>437636</v>
       </c>
       <c r="D470">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1876000</v>
       </c>
     </row>
@@ -15481,15 +15480,15 @@
         <v>470</v>
       </c>
       <c r="B471" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$470</v>
       </c>
       <c r="C471">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>439509</v>
       </c>
       <c r="D471">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1880000</v>
       </c>
     </row>
@@ -15498,15 +15497,15 @@
         <v>471</v>
       </c>
       <c r="B472" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$471</v>
       </c>
       <c r="C472">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>441386</v>
       </c>
       <c r="D472">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1884000</v>
       </c>
     </row>
@@ -15515,15 +15514,15 @@
         <v>472</v>
       </c>
       <c r="B473" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$472</v>
       </c>
       <c r="C473">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>443267</v>
       </c>
       <c r="D473">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1888000</v>
       </c>
     </row>
@@ -15532,15 +15531,15 @@
         <v>473</v>
       </c>
       <c r="B474" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$473</v>
       </c>
       <c r="C474">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>445152</v>
       </c>
       <c r="D474">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1892000</v>
       </c>
     </row>
@@ -15549,15 +15548,15 @@
         <v>474</v>
       </c>
       <c r="B475" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$474</v>
       </c>
       <c r="C475">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>447041</v>
       </c>
       <c r="D475">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1896000</v>
       </c>
     </row>
@@ -15566,15 +15565,15 @@
         <v>475</v>
       </c>
       <c r="B476" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$475</v>
       </c>
       <c r="C476">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>448934</v>
       </c>
       <c r="D476">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1900000</v>
       </c>
     </row>
@@ -15583,15 +15582,15 @@
         <v>476</v>
       </c>
       <c r="B477" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$476</v>
       </c>
       <c r="C477">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>450831</v>
       </c>
       <c r="D477">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1904000</v>
       </c>
     </row>
@@ -15600,15 +15599,15 @@
         <v>477</v>
       </c>
       <c r="B478" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$477</v>
       </c>
       <c r="C478">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>452732</v>
       </c>
       <c r="D478">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1908000</v>
       </c>
     </row>
@@ -15617,15 +15616,15 @@
         <v>478</v>
       </c>
       <c r="B479" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$478</v>
       </c>
       <c r="C479">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>454637</v>
       </c>
       <c r="D479">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1912000</v>
       </c>
     </row>
@@ -15634,15 +15633,15 @@
         <v>479</v>
       </c>
       <c r="B480" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$479</v>
       </c>
       <c r="C480">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>456546</v>
       </c>
       <c r="D480">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1916000</v>
       </c>
     </row>
@@ -15651,15 +15650,15 @@
         <v>480</v>
       </c>
       <c r="B481" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$480</v>
       </c>
       <c r="C481">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>458459</v>
       </c>
       <c r="D481">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1920000</v>
       </c>
     </row>
@@ -15668,15 +15667,15 @@
         <v>481</v>
       </c>
       <c r="B482" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$481</v>
       </c>
       <c r="C482">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>460376</v>
       </c>
       <c r="D482">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1924000</v>
       </c>
     </row>
@@ -15685,15 +15684,15 @@
         <v>482</v>
       </c>
       <c r="B483" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$482</v>
       </c>
       <c r="C483">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>462297</v>
       </c>
       <c r="D483">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1928000</v>
       </c>
     </row>
@@ -15702,15 +15701,15 @@
         <v>483</v>
       </c>
       <c r="B484" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$483</v>
       </c>
       <c r="C484">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>464222</v>
       </c>
       <c r="D484">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1932000</v>
       </c>
     </row>
@@ -15719,15 +15718,15 @@
         <v>484</v>
       </c>
       <c r="B485" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$484</v>
       </c>
       <c r="C485">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>466151</v>
       </c>
       <c r="D485">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1936000</v>
       </c>
     </row>
@@ -15736,15 +15735,15 @@
         <v>485</v>
       </c>
       <c r="B486" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$485</v>
       </c>
       <c r="C486">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>468084</v>
       </c>
       <c r="D486">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1940000</v>
       </c>
     </row>
@@ -15753,15 +15752,15 @@
         <v>486</v>
       </c>
       <c r="B487" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$486</v>
       </c>
       <c r="C487">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>470021</v>
       </c>
       <c r="D487">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1944000</v>
       </c>
     </row>
@@ -15770,15 +15769,15 @@
         <v>487</v>
       </c>
       <c r="B488" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$487</v>
       </c>
       <c r="C488">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>471962</v>
       </c>
       <c r="D488">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1948000</v>
       </c>
     </row>
@@ -15787,15 +15786,15 @@
         <v>488</v>
       </c>
       <c r="B489" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$488</v>
       </c>
       <c r="C489">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>473907</v>
       </c>
       <c r="D489">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1952000</v>
       </c>
     </row>
@@ -15804,15 +15803,15 @@
         <v>489</v>
       </c>
       <c r="B490" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$489</v>
       </c>
       <c r="C490">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>475856</v>
       </c>
       <c r="D490">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1956000</v>
       </c>
     </row>
@@ -15821,15 +15820,15 @@
         <v>490</v>
       </c>
       <c r="B491" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$490</v>
       </c>
       <c r="C491">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>477809</v>
       </c>
       <c r="D491">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1960000</v>
       </c>
     </row>
@@ -15838,15 +15837,15 @@
         <v>491</v>
       </c>
       <c r="B492" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$491</v>
       </c>
       <c r="C492">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>479766</v>
       </c>
       <c r="D492">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1964000</v>
       </c>
     </row>
@@ -15855,15 +15854,15 @@
         <v>492</v>
       </c>
       <c r="B493" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$492</v>
       </c>
       <c r="C493">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>481727</v>
       </c>
       <c r="D493">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1968000</v>
       </c>
     </row>
@@ -15872,15 +15871,15 @@
         <v>493</v>
       </c>
       <c r="B494" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$493</v>
       </c>
       <c r="C494">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>483692</v>
       </c>
       <c r="D494">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1972000</v>
       </c>
     </row>
@@ -15889,15 +15888,15 @@
         <v>494</v>
       </c>
       <c r="B495" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$494</v>
       </c>
       <c r="C495">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>485661</v>
       </c>
       <c r="D495">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1976000</v>
       </c>
     </row>
@@ -15906,15 +15905,15 @@
         <v>495</v>
       </c>
       <c r="B496" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$495</v>
       </c>
       <c r="C496">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>487634</v>
       </c>
       <c r="D496">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1980000</v>
       </c>
     </row>
@@ -15923,15 +15922,15 @@
         <v>496</v>
       </c>
       <c r="B497" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$496</v>
       </c>
       <c r="C497">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>489611</v>
       </c>
       <c r="D497">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1984000</v>
       </c>
     </row>
@@ -15940,15 +15939,15 @@
         <v>497</v>
       </c>
       <c r="B498" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$497</v>
       </c>
       <c r="C498">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>491592</v>
       </c>
       <c r="D498">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1988000</v>
       </c>
     </row>
@@ -15957,15 +15956,15 @@
         <v>498</v>
       </c>
       <c r="B499" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$498</v>
       </c>
       <c r="C499">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>493577</v>
       </c>
       <c r="D499">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1992000</v>
       </c>
     </row>
@@ -15974,15 +15973,15 @@
         <v>499</v>
       </c>
       <c r="B500" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$499</v>
       </c>
       <c r="C500">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>495566</v>
       </c>
       <c r="D500">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1996000</v>
       </c>
     </row>
@@ -15991,15 +15990,15 @@
         <v>500</v>
       </c>
       <c r="B501" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$500</v>
       </c>
       <c r="C501">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>497559</v>
       </c>
       <c r="D501">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2000000</v>
       </c>
     </row>
@@ -16008,15 +16007,15 @@
         <v>501</v>
       </c>
       <c r="B502" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$501</v>
       </c>
       <c r="C502">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>499556</v>
       </c>
       <c r="D502">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2004000</v>
       </c>
     </row>
@@ -16025,15 +16024,15 @@
         <v>502</v>
       </c>
       <c r="B503" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$502</v>
       </c>
       <c r="C503">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>501557</v>
       </c>
       <c r="D503">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2008000</v>
       </c>
     </row>
@@ -16042,15 +16041,15 @@
         <v>503</v>
       </c>
       <c r="B504" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$503</v>
       </c>
       <c r="C504">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>503562</v>
       </c>
       <c r="D504">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2012000</v>
       </c>
     </row>
@@ -16059,15 +16058,15 @@
         <v>504</v>
       </c>
       <c r="B505" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$504</v>
       </c>
       <c r="C505">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>505571</v>
       </c>
       <c r="D505">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2016000</v>
       </c>
     </row>
@@ -16076,15 +16075,15 @@
         <v>505</v>
       </c>
       <c r="B506" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$505</v>
       </c>
       <c r="C506">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>507584</v>
       </c>
       <c r="D506">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2020000</v>
       </c>
     </row>
@@ -16093,15 +16092,15 @@
         <v>506</v>
       </c>
       <c r="B507" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$506</v>
       </c>
       <c r="C507">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>509601</v>
       </c>
       <c r="D507">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2024000</v>
       </c>
     </row>
@@ -16110,15 +16109,15 @@
         <v>507</v>
       </c>
       <c r="B508" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$507</v>
       </c>
       <c r="C508">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>511622</v>
       </c>
       <c r="D508">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2028000</v>
       </c>
     </row>
@@ -16127,15 +16126,15 @@
         <v>508</v>
       </c>
       <c r="B509" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$508</v>
       </c>
       <c r="C509">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>513647</v>
       </c>
       <c r="D509">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2032000</v>
       </c>
     </row>
@@ -16144,15 +16143,15 @@
         <v>509</v>
       </c>
       <c r="B510" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$509</v>
       </c>
       <c r="C510">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>515676</v>
       </c>
       <c r="D510">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2036000</v>
       </c>
     </row>
@@ -16161,15 +16160,15 @@
         <v>510</v>
       </c>
       <c r="B511" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$510</v>
       </c>
       <c r="C511">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>517709</v>
       </c>
       <c r="D511">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2040000</v>
       </c>
     </row>
@@ -16178,15 +16177,15 @@
         <v>511</v>
       </c>
       <c r="B512" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$511</v>
       </c>
       <c r="C512">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>519746</v>
       </c>
       <c r="D512">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2044000</v>
       </c>
     </row>
@@ -16195,15 +16194,15 @@
         <v>512</v>
       </c>
       <c r="B513" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>$C$512</v>
       </c>
       <c r="C513">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>521787</v>
       </c>
       <c r="D513">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2048000</v>
       </c>
     </row>
